--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4BDA2-B1A3-4AC0-84A0-190F68A0067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB805D-EF2C-4F09-B96B-9793FF3F209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="運用方針(Initial Stage)" sheetId="1" r:id="rId1"/>
@@ -2589,6 +2589,104 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>先に埋める</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>101238</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>180613</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>665785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDA300F-987A-48AD-8355-0BDB4610767C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838219" y="393425"/>
+          <a:ext cx="4629394" cy="558110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>お金を課金してチャレンジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>失敗したら、没収→教師</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>寄付に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8946,7 +9044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -9900,9 +9998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB805D-EF2C-4F09-B96B-9793FF3F209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C76F2D-0D9D-41DF-8A9B-2E8151F4FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="運用方針(Initial Stage)" sheetId="1" r:id="rId1"/>
-    <sheet name="計算シート" sheetId="5" r:id="rId2"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId3"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId4"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId5"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId6"/>
-    <sheet name="template" sheetId="3" r:id="rId7"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId8"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId9"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId1"/>
+    <sheet name="運用方針(Initial Stage)" sheetId="1" r:id="rId2"/>
+    <sheet name="計算シート" sheetId="5" r:id="rId3"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId4"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId5"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId6"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId7"/>
+    <sheet name="template" sheetId="3" r:id="rId8"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId9"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -1762,6 +1763,26 @@
     <rPh sb="7" eb="9">
       <t>シサク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>convas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>compass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2687,6 +2708,69 @@
             <a:t>寄付に</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69117</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>136036</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBACFB41-EAA6-43EE-816D-868B6E71D826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3234348" y="1780442"/>
+          <a:ext cx="2243015" cy="1230923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハードモード</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9041,10 +9125,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
+  <dimension ref="B6:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" style="12" customWidth="1"/>
+    <col min="4" max="10" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="1"/>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -9365,7 +9689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -9488,7 +9812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9502,7 +9826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -9994,7 +10318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -10339,7 +10663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10361,7 +10685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -10559,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10576,202 +10900,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="5.08203125" style="12" customWidth="1"/>
-    <col min="4" max="10" width="20.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C76F2D-0D9D-41DF-8A9B-2E8151F4FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE2EFA-58B7-486F-9F20-64FF1A795E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="logoAndName" sheetId="10" r:id="rId1"/>
-    <sheet name="運用方針(Initial Stage)" sheetId="1" r:id="rId2"/>
-    <sheet name="計算シート" sheetId="5" r:id="rId3"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId4"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId5"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId6"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId7"/>
-    <sheet name="template" sheetId="3" r:id="rId8"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId9"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId10"/>
+    <sheet name="目の前の課題" sheetId="11" r:id="rId1"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId2"/>
+    <sheet name="運用方針(Initial Stage)" sheetId="1" r:id="rId3"/>
+    <sheet name="計算シート" sheetId="5" r:id="rId4"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId5"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId6"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId7"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId8"/>
+    <sheet name="template" sheetId="3" r:id="rId9"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId10"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="147">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -1783,6 +1784,107 @@
   </si>
   <si>
     <t>call</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャレンジ失敗で集金？</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金だけじゃなくてビール奢る　Amazonで</t>
+    <rPh sb="0" eb="1">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講師の集金もそこから回収できるといい</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウキン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面白い要素</t>
+    <rPh sb="0" eb="2">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・recommendation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・material</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→会話のネタになるサイトのリンクを集める</t>
+    <rPh sb="1" eb="3">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクを貼るだけなら権利関係等無問題</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケンリカンケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ムモンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→教師のおすすめ</t>
+    <rPh sb="1" eb="3">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンセプトの弱さを補完</t>
+    <rPh sb="6" eb="7">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホカン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2713,69 +2815,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69117</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>136036</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBACFB41-EAA6-43EE-816D-868B6E71D826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3234348" y="1780442"/>
-          <a:ext cx="2243015" cy="1230923"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ハードモード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3099,20 +3138,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627062</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531812</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>142938</xdr:rowOff>
+      <xdr:rowOff>130238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69786</xdr:rowOff>
+      <xdr:rowOff>57086</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+        <xdr:cNvPr id="9" name="Callout: Bent Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FC02F7-97E6-40E6-B99B-F3C3650830B0}"/>
@@ -3123,13 +3162,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3913187" y="4486338"/>
+          <a:off x="4475162" y="4473638"/>
           <a:ext cx="4535488" cy="612648"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
+        <a:prstGeom prst="borderCallout2">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44307"/>
-            <a:gd name="adj2" fmla="val -240672"/>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -170460"/>
+            <a:gd name="adj6" fmla="val -31336"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -9125,46 +9168,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
-  <dimension ref="B6:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
+  <dimension ref="D7:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>135</v>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -9363,11 +9454,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
+  <dimension ref="B6:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9689,7 +9822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -9812,7 +9945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9826,7 +9959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -10318,13 +10451,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10663,7 +10796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10685,7 +10818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -10881,23 +11014,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38712196-8ED9-41B5-969B-1B12237236AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB4942-D958-4967-9CC9-F401E123B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2480" yWindow="2790" windowWidth="21640" windowHeight="11200" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
     <sheet name="利用手順（簡易めも）ガイダンス" sheetId="12" r:id="rId2"/>
     <sheet name="利用手順" sheetId="14" r:id="rId3"/>
-    <sheet name="支払関連検討" sheetId="16" r:id="rId4"/>
+    <sheet name="支払モジュール検討" sheetId="16" r:id="rId4"/>
     <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId5"/>
     <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId6"/>
     <sheet name="追加のアイディア" sheetId="11" r:id="rId7"/>
@@ -34,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$K$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="306">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -3743,19 +3744,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>支払関連検討</t>
-    <rPh sb="0" eb="2">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>支払（学習者→運営）の実装方法</t>
     <rPh sb="7" eb="9">
       <t>ウンエイ</t>
@@ -3859,6 +3847,195 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払データの管理方針</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未払費用として計上</t>
+    <rPh sb="0" eb="2">
+      <t>ミバラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払予定一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払実績入力</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払実績集計</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払モジュール検討</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕払機能の実装方針</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://pentagon.tokyo/app/1726/#toc_id_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ただし、Web版のページのみで支払いができ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アプリから支払い機能への導線（リンクなど）がなければWeb側で決済してOK</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ内でのサービスの支払いは基本的にはアプリ内での支払い処理が必要だが、この場合は外部サービスでの支払いは不可、Apple、Googleそれぞれの決済方法でやる必要がある</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>ケッサイホウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3867,7 +4044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4024,8 +4201,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4065,6 +4250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4240,10 +4431,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4398,6 +4590,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4414,7 +4610,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11653,9 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -12215,8 +12410,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13451,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C79A8D-AE5F-4EF9-B6E2-C928C76037C9}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -13726,11 +13921,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -13759,11 +13955,11 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
@@ -13811,7 +14007,7 @@
         <v>264</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
@@ -13971,7 +14167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="55"/>
       <c r="C11" s="49" t="s">
         <v>149</v>
@@ -14008,7 +14204,7 @@
       <c r="E12" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="73" t="s">
         <v>178</v>
       </c>
       <c r="G12" s="67"/>
@@ -14032,7 +14228,7 @@
       <c r="E13" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="73" t="s">
         <v>178</v>
       </c>
       <c r="G13" s="67"/>
@@ -14056,7 +14252,7 @@
       <c r="E14" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="73" t="s">
         <v>178</v>
       </c>
       <c r="G14" s="67"/>
@@ -14080,7 +14276,7 @@
       <c r="E15" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="73" t="s">
         <v>178</v>
       </c>
       <c r="G15" s="67"/>
@@ -14104,7 +14300,7 @@
       <c r="E16" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="73" t="s">
         <v>147</v>
       </c>
       <c r="G16" s="67"/>
@@ -14128,8 +14324,8 @@
       <c r="E17" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>179</v>
+      <c r="F17" s="73" t="s">
+        <v>178</v>
       </c>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
@@ -14141,7 +14337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="49" t="s">
         <v>170</v>
@@ -14162,7 +14358,7 @@
       </c>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
       <c r="C19" s="49" t="s">
         <v>156</v>
@@ -14186,7 +14382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="55"/>
       <c r="C20" s="49" t="s">
         <v>157</v>
@@ -14210,7 +14406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="49" t="s">
         <v>162</v>
@@ -14236,7 +14432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="55"/>
       <c r="C22" s="49" t="s">
         <v>153</v>
@@ -14260,7 +14456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="49" t="s">
         <v>204</v>
@@ -14284,10 +14480,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>15</v>
@@ -14310,10 +14506,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>11</v>
@@ -14334,10 +14530,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>11</v>
@@ -14355,10 +14551,10 @@
       </c>
       <c r="J26" s="54"/>
     </row>
-    <row r="27" spans="2:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>136</v>
@@ -14379,7 +14575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B28" s="60" t="s">
         <v>207</v>
       </c>
@@ -14405,7 +14601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="56"/>
       <c r="C29" s="42" t="s">
         <v>164</v>
@@ -14429,7 +14625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="56"/>
       <c r="C30" s="42" t="s">
         <v>165</v>
@@ -14453,7 +14649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="56"/>
       <c r="C31" s="42" t="s">
         <v>198</v>
@@ -14477,7 +14673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="56"/>
       <c r="C32" s="42" t="s">
         <v>166</v>
@@ -14501,7 +14697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="56"/>
       <c r="C33" s="42" t="s">
         <v>167</v>
@@ -14549,7 +14745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="57"/>
       <c r="C35" s="42" t="s">
         <v>171</v>
@@ -14573,7 +14769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B36" s="60" t="s">
         <v>208</v>
       </c>
@@ -14595,7 +14791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="71" t="s">
         <v>278</v>
@@ -14617,10 +14813,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>11</v>
@@ -14637,7 +14833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="56"/>
       <c r="C39" s="71"/>
       <c r="D39" s="42"/>
@@ -14651,7 +14847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="56"/>
       <c r="C40" s="71"/>
       <c r="D40" s="42"/>
@@ -14665,7 +14861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="56"/>
       <c r="C41" s="71"/>
       <c r="D41" s="42"/>
@@ -14679,7 +14875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="C42" s="71"/>
       <c r="D42" s="42"/>
@@ -14693,7 +14889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="57"/>
       <c r="C43" s="71"/>
       <c r="D43" s="42"/>
@@ -14707,7 +14903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="41" t="s">
         <v>35</v>
       </c>
@@ -14740,7 +14936,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K44" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:K44" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="高"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
@@ -14776,10 +14978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E900EB-F3A7-4005-ACFD-1E041368A13A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -14789,7 +14991,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -14823,7 +15025,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -14841,7 +15043,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -14849,13 +15051,88 @@
         <v>3</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="72" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B32" r:id="rId1" location="toc_id_2" xr:uid="{2994A62C-57C7-47E0-8D62-596F2B1AE494}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,33 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB4942-D958-4967-9CC9-F401E123B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC7F64-7011-4D76-9E54-3DC532B58098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2480" yWindow="2790" windowWidth="21640" windowHeight="11200" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
     <sheet name="利用手順（簡易めも）ガイダンス" sheetId="12" r:id="rId2"/>
     <sheet name="利用手順" sheetId="14" r:id="rId3"/>
-    <sheet name="支払モジュール検討" sheetId="16" r:id="rId4"/>
-    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId5"/>
-    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId6"/>
-    <sheet name="追加のアイディア" sheetId="11" r:id="rId7"/>
-    <sheet name="logoAndName" sheetId="10" r:id="rId8"/>
-    <sheet name="（参考）計算シート" sheetId="5" r:id="rId9"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId10"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId11"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId12"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId13"/>
-    <sheet name="template" sheetId="3" r:id="rId14"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId15"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId16"/>
+    <sheet name="Advices" sheetId="17" r:id="rId4"/>
+    <sheet name="支払モジュール検討" sheetId="16" r:id="rId5"/>
+    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId6"/>
+    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId7"/>
+    <sheet name="追加のアイディア" sheetId="11" r:id="rId8"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId9"/>
+    <sheet name="（参考）計算シート" sheetId="5" r:id="rId10"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId11"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId12"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId13"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId14"/>
+    <sheet name="template" sheetId="3" r:id="rId15"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId16"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="328">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -1900,19 +1900,6 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>教師検索・プロフィール確認</t>
-    <rPh sb="0" eb="2">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3486,16 +3473,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レイアウト案作成</t>
-    <rPh sb="5" eb="6">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実装</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4037,6 +4014,264 @@
     <rPh sb="81" eb="83">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教師検索</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教師プロフィール確認</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教師空き時間確認</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン1(空き時間登録済)</t>
+    <rPh sb="10" eb="13">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン2(空き時間未登録)</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空き時間登録</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッスンリクエスト送信(時間指定)</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッスンリクエスト受信・確認</t>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・最初のコンセプト説明はユーザタイプを選んだあと、ユーザタイプに応じた説明内容とする</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ユーザタイプ選択、コンセプト説明の中のアイコンを統一</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ユーザタイプ選択のアイコンはLearner,Teacherで色味を変える、白抜きか黒のままの違いにする？</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イロミ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シロヌ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゴール選択の一覧は、ある程度難易度、カジュアル度の意味づけが並んでいるといい</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・学習頻度と曜日を選択する画面は1画面に。また、時間も入力できるように。入力は曜日ごとの縦のスケールバーとする？</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60min</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枝別れパターン</t>
+    <rPh sb="0" eb="1">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトチェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4210,7 +4445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4256,6 +4491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4435,7 +4676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4576,18 +4817,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
@@ -4607,6 +4836,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11872,12 +12119,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11885,7 +12132,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11893,7 +12140,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11901,7 +12148,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11909,7 +12156,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11917,7 +12164,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11925,7 +12172,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -11987,7 +12234,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -11995,7 +12242,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12050,15 +12297,15 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12066,7 +12313,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12074,22 +12321,22 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12097,23 +12344,23 @@
         <v>3</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12121,17 +12368,17 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12139,7 +12386,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12155,13 +12402,13 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="C50" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12170,7 +12417,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12179,7 +12426,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12187,22 +12434,22 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.65">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12212,7 +12459,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12232,7 +12479,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -12281,7 +12528,7 @@
     </row>
     <row r="85" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="V85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="4:28" x14ac:dyDescent="0.55000000000000004">
@@ -12353,6 +12600,129 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
+  <dimension ref="B3:J6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13">
+        <v>7</v>
+      </c>
+      <c r="J3" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13">
+        <v>43</v>
+      </c>
+      <c r="F4" s="13">
+        <v>10</v>
+      </c>
+      <c r="G4" s="13">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13">
+        <v>10</v>
+      </c>
+      <c r="I4" s="13">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13">
+        <f>C3*C4</f>
+        <v>30</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:J5" si="0">D3*D4</f>
+        <v>74</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUM(C5:J5)</f>
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12368,7 +12738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -12410,8 +12780,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -12860,7 +13230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -13205,7 +13575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13227,7 +13597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -13425,7 +13795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13444,7 +13814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -13647,7 +14017,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -13669,7 +14039,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="43"/>
     </row>
@@ -13680,22 +14050,22 @@
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
       <c r="B3" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13704,48 +14074,48 @@
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>150</v>
@@ -13756,23 +14126,23 @@
         <v>147</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
@@ -13785,28 +14155,28 @@
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>150</v>
@@ -13814,36 +14184,36 @@
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C27" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D32" s="47" t="s">
         <v>150</v>
@@ -13851,65 +14221,65 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -13921,1030 +14291,1187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="33.9140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="41" customWidth="1"/>
-    <col min="6" max="8" width="14.6640625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="45.5" style="41" customWidth="1"/>
-    <col min="11" max="11" width="8.58203125" style="41"/>
-    <col min="12" max="12" width="19.75" style="41" customWidth="1"/>
-    <col min="13" max="13" width="40.1640625" style="41" customWidth="1"/>
-    <col min="14" max="16384" width="8.58203125" style="41"/>
+    <col min="2" max="2" width="21.08203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="21.58203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="33.9140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.4140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="41" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="8.4140625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="45.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="8.58203125" style="41"/>
+    <col min="13" max="13" width="19.75" style="41" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43"/>
+      <c r="G2" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="43"/>
-      <c r="F2" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="48" t="s">
+      <c r="K3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="L3" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="49" t="s">
+      <c r="E5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="78"/>
+      <c r="J5" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="F6" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="55"/>
+      <c r="C10" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="55"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="55"/>
+      <c r="C12" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="55"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
+      <c r="C19" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="46" t="s">
+      <c r="G23" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="55"/>
-      <c r="C5" s="49" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="G26" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="F27" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="54"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="54"/>
+      <c r="L32" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="61"/>
+      <c r="L33" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="42"/>
+      <c r="L34" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="42"/>
+      <c r="L37" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="42"/>
+      <c r="L38" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="42"/>
+      <c r="L40" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="41" t="s">
+      <c r="G41" s="63"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.35">
-      <c r="B6" s="55"/>
-      <c r="C6" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="41" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L42" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="55"/>
-      <c r="C7" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="41" t="s">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="55"/>
-      <c r="C8" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="41" t="s">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="41" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="55"/>
-      <c r="C10" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="41" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="55"/>
-      <c r="C11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="41" t="s">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="55"/>
-      <c r="C12" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="41" t="s">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="55"/>
-      <c r="C13" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="41" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="55"/>
-      <c r="C14" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="41" t="s">
+      <c r="D49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="55"/>
-      <c r="C15" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="41" t="s">
+      <c r="E49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="55"/>
-      <c r="C16" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="41" t="s">
+      <c r="F49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="55"/>
-      <c r="C17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="41" t="s">
+      <c r="G49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55"/>
-      <c r="C18" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="49"/>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55"/>
-      <c r="C19" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="41" t="s">
+      <c r="H49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="41" t="s">
+      <c r="I49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="55"/>
-      <c r="C21" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" s="41" t="s">
+      <c r="J49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="55"/>
-      <c r="C22" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="41" t="s">
+      <c r="K49" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="55"/>
-      <c r="C23" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="41" t="s">
+      <c r="L49" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="55"/>
-      <c r="C24" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="55"/>
-      <c r="C26" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J26" s="54"/>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55"/>
-      <c r="C27" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56"/>
-      <c r="C29" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="56"/>
-      <c r="C30" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="56"/>
-      <c r="C31" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="56"/>
-      <c r="C32" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="56"/>
-      <c r="C33" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" s="42"/>
-      <c r="K33" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="56"/>
-      <c r="C34" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57"/>
-      <c r="C35" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="56"/>
-      <c r="C37" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="56"/>
-      <c r="C38" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="56"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="56"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="56"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="56"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:K44" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="高"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:L49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14956,19 +15483,19 @@
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$18:$C$23</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:H43</xm:sqref>
+          <xm:sqref>G4:G48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21DA42DC-F4CF-44D6-B2BC-7675E9E5D12D}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$27:$C$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I43</xm:sqref>
+          <xm:sqref>J4:J48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{628EF5A0-BDD8-46F8-AABA-B79449D40655}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$33:$C$37</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E43</xm:sqref>
+          <xm:sqref>F4:F48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14977,6 +15504,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CE80C-0E09-4C81-89AF-2BDA14B068B0}">
+  <dimension ref="B2:U6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="41"/>
+    <col min="2" max="2" width="6" style="41" customWidth="1"/>
+    <col min="3" max="13" width="8.6640625" style="41"/>
+    <col min="14" max="20" width="3.5" style="41" customWidth="1"/>
+    <col min="21" max="16384" width="8.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="N4" s="77"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="77"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="N5" s="77"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="77"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="T6" s="53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E900EB-F3A7-4005-ACFD-1E041368A13A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -14991,20 +15605,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -15012,12 +15626,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -15025,7 +15639,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -15035,7 +15649,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -15043,7 +15657,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -15051,15 +15665,15 @@
         <v>3</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -15067,7 +15681,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -15075,54 +15689,54 @@
         <v>3</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>298</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="72" t="s">
-        <v>303</v>
+      <c r="B32" s="68" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -15136,7 +15750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A646148-D710-48AC-A0AE-37805F825ECB}">
   <dimension ref="A7"/>
   <sheetViews>
@@ -15159,7 +15773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -15176,7 +15790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
   <dimension ref="D7:J24"/>
   <sheetViews>
@@ -15241,27 +15855,27 @@
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -15272,7 +15886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
   <dimension ref="B6:B12"/>
   <sheetViews>
@@ -15312,127 +15926,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
-  <dimension ref="B3:J6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13">
-        <v>5</v>
-      </c>
-      <c r="H3" s="13">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13">
-        <v>7</v>
-      </c>
-      <c r="J3" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="13">
-        <v>30</v>
-      </c>
-      <c r="D4" s="13">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13">
-        <v>43</v>
-      </c>
-      <c r="F4" s="13">
-        <v>10</v>
-      </c>
-      <c r="G4" s="13">
-        <v>10</v>
-      </c>
-      <c r="H4" s="13">
-        <v>10</v>
-      </c>
-      <c r="I4" s="13">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="13">
-        <f>C3*C4</f>
-        <v>30</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" ref="D5:J5" si="0">D3*D4</f>
-        <v>74</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="4">
-        <f>SUM(C5:J5)</f>
-        <v>533</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,31 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC7F64-7011-4D76-9E54-3DC532B58098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DE9A-B05A-44CE-BA74-6F518036B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
     <sheet name="利用手順（簡易めも）ガイダンス" sheetId="12" r:id="rId2"/>
-    <sheet name="利用手順" sheetId="14" r:id="rId3"/>
-    <sheet name="Advices" sheetId="17" r:id="rId4"/>
-    <sheet name="支払モジュール検討" sheetId="16" r:id="rId5"/>
-    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId6"/>
-    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId7"/>
-    <sheet name="追加のアイディア" sheetId="11" r:id="rId8"/>
-    <sheet name="logoAndName" sheetId="10" r:id="rId9"/>
-    <sheet name="（参考）計算シート" sheetId="5" r:id="rId10"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId11"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId12"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId13"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId14"/>
-    <sheet name="template" sheetId="3" r:id="rId15"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId16"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId17"/>
+    <sheet name="目的選択肢の整理" sheetId="20" r:id="rId3"/>
+    <sheet name="利用手順" sheetId="14" r:id="rId4"/>
+    <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId5"/>
+    <sheet name="Advices" sheetId="17" r:id="rId6"/>
+    <sheet name="支払モジュール検討" sheetId="16" r:id="rId7"/>
+    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId8"/>
+    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId9"/>
+    <sheet name="追加のアイディア" sheetId="11" r:id="rId10"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId11"/>
+    <sheet name="（参考）計算シート" sheetId="5" r:id="rId12"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId13"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId14"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId15"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId16"/>
+    <sheet name="template" sheetId="3" r:id="rId17"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId18"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">利用手順!$A$3:$M$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="356">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -1770,23 +1772,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>キョヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レッスンリクエストの確認</t>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レッスンリクエストの修正・削除</t>
-    <rPh sb="10" eb="12">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4097,13 +4082,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>高</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・最初のコンセプト説明はユーザタイプを選んだあと、ユーザタイプに応じた説明内容とする</t>
     <rPh sb="1" eb="3">
       <t>サイショ</t>
@@ -4272,6 +4250,401 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残課題</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手順</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要性</t>
+    <rPh sb="0" eb="3">
+      <t>ヒツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッスン成立のパターン・手順</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習者→教師へのアプローチ</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教師→学習者へのアプローチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教師の空き時間登録</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>していない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習者の空き時間登録</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン1と同様</t>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン2と同様
+※ただし、教師が空き時間登録するときに学習者の空き時間を参考にできる</t>
+    <rPh sb="6" eb="8">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前：教師が空き時間登録：「カレンダ」
+～～～～～～～～～～～
+①学習者が教師のプロフィールカレンダから指定の時間をタップ→リクエスト送信：「プロフィールカレンダ」
+②教師が承諾：「プロフィールカレンダ」</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ショウダク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トーク画面は、名前を教師の場合「Students」、学習者の場合「Teachers」とする</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャット画面はいきなりチャット画面でなく、ルート枠を設けて、その中に、プロフィール、チャット、カレンダ、リクエスト・アポイントメント一覧を表示する？</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッスンアポの確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッスンアポの修正・削除</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大分類</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小分類</t>
+    <rPh sb="0" eb="3">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的選択肢の整理</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>友達</t>
+    <rPh sb="0" eb="2">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IELTS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOEFL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOEIC　LR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOEIC　SW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①学習者が教師に空き時間登録依頼→教師の空き時間登録が面倒、リクエストに具体性を持たせる（〇〇日の午後など）
+②教師が空き時間登録
+③学習者が教師のプロフィールカレンダから指定の時間をタップ→リクエスト送信
+④教師が承諾</t>
+    <rPh sb="1" eb="4">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>グタイセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ショウダク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4676,7 +5049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4823,21 +5196,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4854,6 +5212,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5161,6 +5548,310 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96716</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1087109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>135113</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9874B8C6-81EF-47DA-8221-A5A235B35443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9621716" y="3663000"/>
+          <a:ext cx="5753397" cy="3116545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4859962</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>420181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>960873</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1421872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472C9FD3-6E00-4B08-9C69-BA4E42B9B4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9125505" y="1629442"/>
+          <a:ext cx="5932368" cy="2368321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5072569</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605619</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>387260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B698DA-9C30-411B-9590-D0ED85FD4689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9338112" y="668822"/>
+          <a:ext cx="5364507" cy="927699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>837210</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1141535</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237D6314-9BE3-44D7-80C2-9F5E6420B644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10362210" y="6803197"/>
+          <a:ext cx="3733325" cy="5317292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>422414</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>207822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>416505</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB5DC83-7862-457D-8C03-14EA51F0ABDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9947414" y="9923322"/>
+          <a:ext cx="4566091" cy="3620509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2405683</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449883</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72D63B-E860-4DB9-935C-537FB8FC780C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6671226" y="0"/>
+          <a:ext cx="4446657" cy="702365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ただの洗い出しめも</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アウトプットは継続のための施策</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Sheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に記載</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -8978,7 +9669,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9582,7 +10273,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10393,6 +11084,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573087</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A4B8C9-030D-450D-0CD6-289424322AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5897562" y="1182687"/>
+          <a:ext cx="3309938" cy="969963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ターゲット層の目的の半分くらいは旅行じゃないか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>→そこに特化した機能が活きるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>46846</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -10471,7 +11245,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10539,7 +11313,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10646,7 +11420,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10838,7 +11612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11227,7 +12001,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11519,310 +12293,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>これを解決するのがメインの顧客への価値</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>96716</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1087109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>135113</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9874B8C6-81EF-47DA-8221-A5A235B35443}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9621716" y="3663000"/>
-          <a:ext cx="5753397" cy="3116545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4859962</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>420181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>960873</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1421872</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472C9FD3-6E00-4B08-9C69-BA4E42B9B4F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9125505" y="1629442"/>
-          <a:ext cx="5932368" cy="2368321"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5072569</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>147018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>605619</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>387260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B698DA-9C30-411B-9590-D0ED85FD4689}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9338112" y="668822"/>
-          <a:ext cx="5364507" cy="927699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>837210</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>102567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1141535</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85859</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237D6314-9BE3-44D7-80C2-9F5E6420B644}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10362210" y="6803197"/>
-          <a:ext cx="3733325" cy="5317292"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422414</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>207822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>416505</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>117722</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB5DC83-7862-457D-8C03-14EA51F0ABDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9947414" y="9923322"/>
-          <a:ext cx="4566091" cy="3620509"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2405683</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449883</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72D63B-E860-4DB9-935C-537FB8FC780C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6671226" y="0"/>
-          <a:ext cx="4446657" cy="702365"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ただの洗い出しめも</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アウトプットは継続のための施策</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Sheet</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に記載</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12097,7 +12567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -12119,12 +12591,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12132,7 +12604,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12140,7 +12612,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12148,7 +12620,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12156,7 +12628,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12164,7 +12636,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12172,7 +12644,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12234,7 +12706,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12242,7 +12714,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12297,15 +12769,15 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12313,7 +12785,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12321,22 +12793,22 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12344,23 +12816,23 @@
         <v>3</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12368,17 +12840,17 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12386,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12402,13 +12874,13 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="C50" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12417,7 +12889,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12426,7 +12898,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12434,22 +12906,22 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.65">
       <c r="A56" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12459,7 +12931,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12479,7 +12951,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -12528,7 +13000,7 @@
     </row>
     <row r="85" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="V85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="4:28" x14ac:dyDescent="0.55000000000000004">
@@ -12600,6 +13072,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
+  <dimension ref="D7:J24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
+  <dimension ref="B6:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -12722,7 +13332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12738,7 +13348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -12780,8 +13390,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13230,7 +13840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -13575,7 +14185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13597,7 +14207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -13795,7 +14405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13814,7 +14424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -14017,7 +14627,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -14039,7 +14649,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="43"/>
     </row>
@@ -14050,22 +14660,22 @@
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
       <c r="B3" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14074,212 +14684,212 @@
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="44" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" s="47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="42" t="s">
         <v>178</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C27" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -14290,12 +14900,425 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F64A74F-865B-47E0-89FA-0D50BB69C36B}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="41"/>
+    <col min="3" max="3" width="14.4140625" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="56"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="56"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="57"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="56"/>
+      <c r="C11" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="56"/>
+      <c r="C12" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="56"/>
+      <c r="C13" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="56"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="56"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="57"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="56"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="56"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="56"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="56"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="56"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="57"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="56"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="56"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="56"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="56"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="56"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="56"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="56"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -14306,40 +15329,41 @@
     <col min="4" max="4" width="33.9140625" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.4140625" style="41" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="41" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="8.4140625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="45.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="8.58203125" style="41"/>
-    <col min="13" max="13" width="19.75" style="41" customWidth="1"/>
-    <col min="14" max="14" width="40.1640625" style="41" customWidth="1"/>
-    <col min="15" max="16384" width="8.58203125" style="41"/>
+    <col min="7" max="10" width="14.6640625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="8.4140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="45.5" style="41" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" style="41"/>
+    <col min="14" max="14" width="19.75" style="41" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" style="41" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
-      <c r="G2" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G2" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>135</v>
@@ -14348,225 +15372,236 @@
         <v>137</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>175</v>
+        <v>252</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>325</v>
       </c>
       <c r="K3" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="55"/>
       <c r="C10" s="54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="51"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="55"/>
-      <c r="C11" s="75"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="55"/>
       <c r="C12" s="54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>138</v>
@@ -14575,22 +15610,23 @@
         <v>15</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="49" t="s">
@@ -14600,22 +15636,23 @@
         <v>136</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="49" t="s">
@@ -14625,22 +15662,23 @@
         <v>136</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="49" t="s">
@@ -14650,49 +15688,51 @@
         <v>15</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="49"/>
+      <c r="M15" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="49" t="s">
@@ -14702,24 +15742,25 @@
         <v>15</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="49"/>
+      <c r="M17" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
-      <c r="C18" s="75"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="49" t="s">
         <v>142</v>
       </c>
@@ -14727,716 +15768,747 @@
         <v>136</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="49"/>
+      <c r="M18" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
       <c r="C19" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="70" t="s">
         <v>143</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="49" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="49" t="s">
-        <v>145</v>
+        <v>343</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="49"/>
+      <c r="M22" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L26" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="49"/>
+      <c r="M27" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E29" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="L29" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="49"/>
+      <c r="M30" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E31" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="54"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>136</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G32" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="54"/>
+      <c r="M32" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="61" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" s="61"/>
+      <c r="M33" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K38" s="42"/>
-      <c r="L38" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="42"/>
+      <c r="M39" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B41" s="60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E41" s="61" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G41" s="63"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E42" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G42" s="46"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="L42" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M42" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
       <c r="D43" s="67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E43" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G43" s="46"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
       <c r="D44" s="67"/>
       <c r="E44" s="42"/>
       <c r="F44" s="45"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
       <c r="D45" s="67"/>
       <c r="E45" s="42"/>
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="67"/>
       <c r="E46" s="42"/>
       <c r="F46" s="45"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
       <c r="D47" s="67"/>
       <c r="E47" s="42"/>
       <c r="F47" s="45"/>
       <c r="G47" s="46"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
       <c r="D48" s="67"/>
       <c r="E48" s="42"/>
       <c r="F48" s="45"/>
       <c r="G48" s="46"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
@@ -15458,20 +16530,20 @@
       <c r="I49" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="41" t="s">
-        <v>35</v>
-      </c>
       <c r="K49" s="41" t="s">
         <v>35</v>
       </c>
       <c r="L49" s="41" t="s">
         <v>35</v>
       </c>
+      <c r="M49" s="41" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <mergeCells count="1">
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15489,7 +16561,7 @@
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$27:$C$29</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J48</xm:sqref>
+          <xm:sqref>K4:K48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{628EF5A0-BDD8-46F8-AABA-B79449D40655}">
           <x14:formula1>
@@ -15503,12 +16575,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CE80C-0E09-4C81-89AF-2BDA14B068B0}">
-  <dimension ref="B2:U6"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D14F87-625A-4C0B-A3D8-95639FCF1305}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4" style="77" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" style="77" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="77" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="84.83203125" style="77" customWidth="1"/>
+    <col min="7" max="7" width="42.58203125" style="77" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="76"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="79">
+        <v>2</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="49">
+        <v>3</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="79">
+        <v>4</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49">
+        <v>5</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="79">
+        <v>6</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="49">
+        <v>7</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="79">
+        <v>8</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CE80C-0E09-4C81-89AF-2BDA14B068B0}">
+  <dimension ref="B2:U12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15522,65 +16826,75 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="U3" s="41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="77"/>
+        <v>312</v>
+      </c>
+      <c r="N4" s="72"/>
       <c r="O4" s="53"/>
       <c r="P4" s="53"/>
       <c r="Q4" s="53"/>
       <c r="R4" s="53"/>
       <c r="S4" s="53"/>
-      <c r="T4" s="77"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="N5" s="77"/>
+        <v>313</v>
+      </c>
+      <c r="N5" s="72"/>
       <c r="O5" s="53"/>
       <c r="P5" s="53"/>
-      <c r="Q5" s="77"/>
+      <c r="Q5" s="72"/>
       <c r="R5" s="53"/>
       <c r="S5" s="53"/>
-      <c r="T5" s="77"/>
+      <c r="T5" s="72"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="P6" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="Q6" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="R6" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="S6" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="P6" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="S6" s="53" t="s">
-        <v>322</v>
-      </c>
       <c r="T6" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="41" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -15590,7 +16904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E900EB-F3A7-4005-ACFD-1E041368A13A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -15605,20 +16919,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -15626,12 +16940,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -15639,7 +16953,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -15649,7 +16963,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -15657,7 +16971,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -15665,15 +16979,15 @@
         <v>3</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -15681,7 +16995,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -15689,54 +17003,54 @@
         <v>3</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>296</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="41" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -15750,7 +17064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A646148-D710-48AC-A0AE-37805F825ECB}">
   <dimension ref="A7"/>
   <sheetViews>
@@ -15773,7 +17087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -15788,142 +17102,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
-  <dimension ref="D7:J24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
-  <dimension ref="B6:B12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DE9A-B05A-44CE-BA74-6F518036B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A520DE-C1BE-4D10-B55C-DF9ED0EF69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15314,11 +15314,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15598,7 +15599,7 @@
       </c>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="55"/>
       <c r="C12" s="54" t="s">
         <v>306</v>
@@ -15626,7 +15627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="49" t="s">
@@ -15652,7 +15653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="49" t="s">
@@ -15678,7 +15679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="49" t="s">
@@ -15704,7 +15705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="49" t="s">
@@ -15732,7 +15733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="49" t="s">
@@ -15758,7 +15759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="70"/>
       <c r="D18" s="49" t="s">
@@ -15838,7 +15839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="49" t="s">
@@ -15857,7 +15858,7 @@
       <c r="I21" s="73"/>
       <c r="J21" s="73"/>
       <c r="K21" s="46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="41" t="s">
@@ -15890,7 +15891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="49" t="s">
@@ -15913,7 +15914,7 @@
       </c>
       <c r="L23" s="49"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="49" t="s">
@@ -15939,7 +15940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="49" t="s">
@@ -15965,7 +15966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
@@ -15993,7 +15994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="49" t="s">
@@ -16019,7 +16020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="49" t="s">
@@ -16045,7 +16046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="49" t="s">
@@ -16073,7 +16074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="49" t="s">
@@ -16099,7 +16100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="54" t="s">
@@ -16122,7 +16123,7 @@
       </c>
       <c r="L31" s="54"/>
     </row>
-    <row r="32" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="54" t="s">
@@ -16148,7 +16149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="60" t="s">
         <v>204</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="42" t="s">
@@ -16202,7 +16203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="42" t="s">
@@ -16228,7 +16229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="42" t="s">
@@ -16254,7 +16255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="42" t="s">
@@ -16280,7 +16281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="42" t="s">
@@ -16332,7 +16333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="42" t="s">
@@ -16358,7 +16359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B41" s="60" t="s">
         <v>205</v>
       </c>
@@ -16382,7 +16383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="67" t="s">
@@ -16406,7 +16407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
       <c r="D43" s="67" t="s">
@@ -16428,7 +16429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
       <c r="D44" s="67"/>
@@ -16444,7 +16445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
       <c r="D45" s="67"/>
@@ -16460,7 +16461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="67"/>
@@ -16476,7 +16477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
       <c r="D47" s="67"/>
@@ -16492,7 +16493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
       <c r="D48" s="67"/>
@@ -16508,7 +16509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
@@ -16541,7 +16542,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="高"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="G2:J2"/>
   </mergeCells>

--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A520DE-C1BE-4D10-B55C-DF9ED0EF69ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC6F24-08DE-45D9-8627-99A687DFD50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
     <sheet name="利用手順（簡易めも）ガイダンス" sheetId="12" r:id="rId2"/>
-    <sheet name="目的選択肢の整理" sheetId="20" r:id="rId3"/>
-    <sheet name="利用手順" sheetId="14" r:id="rId4"/>
-    <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="14" r:id="rId3"/>
+    <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId4"/>
+    <sheet name="目的選択肢の整理" sheetId="20" r:id="rId5"/>
     <sheet name="Advices" sheetId="17" r:id="rId6"/>
     <sheet name="支払モジュール検討" sheetId="16" r:id="rId7"/>
     <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId8"/>
@@ -34,7 +34,7 @@
     <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">利用手順!$A$3:$M$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$M$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="357">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -1783,13 +1783,6 @@
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レイアウトFix済</t>
-    <rPh sb="8" eb="9">
-      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4645,6 +4638,20 @@
     <rPh sb="108" eb="110">
       <t>ショウダク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウト調整済</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ざっくり作成済</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5193,9 +5200,6 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5228,20 +5232,23 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12591,12 +12598,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12604,7 +12611,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12612,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12620,7 +12627,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12628,7 +12635,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12636,7 +12643,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12644,7 +12651,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12706,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12714,7 +12721,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12769,15 +12776,15 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12785,7 +12792,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12793,22 +12800,22 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12816,23 +12823,23 @@
         <v>3</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12840,17 +12847,17 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12858,7 +12865,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12874,13 +12881,13 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="C50" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12889,7 +12896,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12898,7 +12905,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12906,22 +12913,22 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.65">
       <c r="A56" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12931,7 +12938,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12951,7 +12958,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.55000000000000004">
@@ -13000,7 +13007,7 @@
     </row>
     <row r="85" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="V85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="4:28" x14ac:dyDescent="0.55000000000000004">
@@ -13136,27 +13143,27 @@
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -13390,8 +13397,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14626,8 +14633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C79A8D-AE5F-4EF9-B6E2-C928C76037C9}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -14649,7 +14656,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="43"/>
     </row>
@@ -14660,22 +14667,22 @@
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
       <c r="B3" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14684,51 +14691,51 @@
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
@@ -14736,160 +14743,160 @@
         <v>145</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>253</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C27" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C33" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -14900,426 +14907,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F64A74F-865B-47E0-89FA-0D50BB69C36B}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.75" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="41"/>
-    <col min="3" max="3" width="14.4140625" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H2" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="80" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="81" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="56"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="56"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="56"/>
-      <c r="C12" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="56"/>
-      <c r="C13" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="56"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="56"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="81" t="s">
-        <v>349</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="56"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="56"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="56"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="56"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="56"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="56"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="56"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="56"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="56"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="56"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="56"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="56"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="57"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15341,30 +14934,30 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>150</v>
+        <v>170</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>135</v>
@@ -15373,19 +14966,19 @@
         <v>137</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>252</v>
-      </c>
       <c r="J3" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L3" s="48" t="s">
         <v>133</v>
@@ -15396,28 +14989,28 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>256</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>257</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+        <v>355</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="41" t="s">
@@ -15428,27 +15021,27 @@
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M5" s="41" t="s">
         <v>35</v>
@@ -15458,22 +15051,22 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -15481,22 +15074,22 @@
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -15504,25 +15097,25 @@
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>35</v>
@@ -15532,77 +15125,77 @@
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="55"/>
       <c r="C10" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="55"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="55"/>
       <c r="C12" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>138</v>
@@ -15611,23 +15204,23 @@
         <v>15</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="49" t="s">
@@ -15637,23 +15230,23 @@
         <v>136</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="49" t="s">
@@ -15663,23 +15256,23 @@
         <v>136</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="49" t="s">
@@ -15689,51 +15282,51 @@
         <v>15</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L15" s="49"/>
       <c r="M15" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="49" t="s">
@@ -15743,25 +15336,25 @@
         <v>15</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
-      <c r="C18" s="70"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="49" t="s">
         <v>142</v>
       </c>
@@ -15769,16 +15362,16 @@
         <v>136</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L18" s="49"/>
       <c r="M18" s="41" t="s">
@@ -15788,25 +15381,25 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
       <c r="C19" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L19" s="49"/>
       <c r="M19" s="41" t="s">
@@ -15817,48 +15410,48 @@
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L20" s="49"/>
       <c r="M20" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G21" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="49"/>
       <c r="M21" s="41" t="s">
@@ -15869,438 +15462,438 @@
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
+        <v>259</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L22" s="49"/>
       <c r="M22" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" s="49"/>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>139</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G25" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" s="49"/>
       <c r="M25" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G26" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M26" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L27" s="49"/>
       <c r="M27" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
       <c r="K28" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L28" s="49"/>
       <c r="M28" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M29" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L30" s="49"/>
       <c r="M30" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" s="54"/>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>136</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
       <c r="K32" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L32" s="54"/>
       <c r="M32" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="61" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+        <v>175</v>
+      </c>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
       <c r="K33" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
       <c r="K34" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L34" s="42"/>
       <c r="M34" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L35" s="42"/>
       <c r="M35" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
       <c r="K36" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" s="42"/>
       <c r="M36" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
       <c r="K37" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L37" s="42"/>
       <c r="M37" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
       <c r="K38" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L38" s="42"/>
       <c r="M38" s="41" t="s">
@@ -16311,205 +15904,205 @@
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>139</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
       <c r="K39" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L39" s="42"/>
       <c r="M39" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
+        <v>175</v>
+      </c>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L40" s="42"/>
       <c r="M40" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15.5" hidden="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B41" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E41" s="61" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G41" s="63"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
       <c r="K41" s="63"/>
       <c r="L41" s="61"/>
       <c r="M41" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G42" s="46"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="46"/>
       <c r="L42" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M42" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
       <c r="D43" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E43" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G43" s="46"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
       <c r="K43" s="46"/>
       <c r="L43" s="42"/>
       <c r="M43" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
       <c r="D44" s="67"/>
       <c r="E44" s="42"/>
       <c r="F44" s="45"/>
       <c r="G44" s="46"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
       <c r="K44" s="46"/>
       <c r="L44" s="42"/>
       <c r="M44" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
       <c r="D45" s="67"/>
       <c r="E45" s="42"/>
       <c r="F45" s="45"/>
       <c r="G45" s="46"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
       <c r="K45" s="46"/>
       <c r="L45" s="42"/>
       <c r="M45" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="67"/>
       <c r="E46" s="42"/>
       <c r="F46" s="45"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="46"/>
       <c r="L46" s="42"/>
       <c r="M46" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
       <c r="D47" s="67"/>
       <c r="E47" s="42"/>
       <c r="F47" s="45"/>
       <c r="G47" s="46"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
       <c r="K47" s="46"/>
       <c r="L47" s="42"/>
       <c r="M47" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
       <c r="D48" s="67"/>
       <c r="E48" s="42"/>
       <c r="F48" s="45"/>
       <c r="G48" s="46"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="46"/>
       <c r="L48" s="42"/>
       <c r="M48" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
@@ -16542,16 +16135,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="高"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
-  </mergeCells>
+  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16582,7 +16166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D14F87-625A-4C0B-A3D8-95639FCF1305}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -16593,83 +16177,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4" style="77" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" style="77" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="77" customWidth="1"/>
-    <col min="4" max="5" width="18.83203125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="84.83203125" style="77" customWidth="1"/>
-    <col min="7" max="7" width="42.58203125" style="77" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="77"/>
+    <col min="1" max="1" width="4" style="76" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="76" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="84.83203125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="42.58203125" style="76" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="76"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="D4" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="79">
-        <v>1</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="79" t="s">
+      <c r="E4" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>339</v>
+      <c r="F4" s="78" t="s">
+        <v>338</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <v>2</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>355</v>
+      <c r="C5" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>354</v>
       </c>
       <c r="G5" s="49"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="76" t="s">
         <v>35</v>
       </c>
     </row>
@@ -16677,41 +16261,41 @@
       <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="78">
+        <v>4</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="79" t="s">
+      <c r="E7" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="78" t="s">
         <v>337</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="79">
-        <v>4</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>338</v>
-      </c>
       <c r="G7" s="49"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="76" t="s">
         <v>35</v>
       </c>
     </row>
@@ -16719,98 +16303,511 @@
       <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="79" t="s">
+      <c r="C8" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="78" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="79"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="79">
+      <c r="B9" s="78">
         <v>6</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="79"/>
+      <c r="C9" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="78"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>334</v>
+      <c r="C10" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>333</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="79">
+      <c r="B11" s="78">
         <v>8</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="79" t="s">
+      <c r="C11" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>334</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>333</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="77" t="s">
+      <c r="B12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="76" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F64A74F-865B-47E0-89FA-0D50BB69C36B}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="41"/>
+    <col min="3" max="3" width="14.4140625" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="56"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="56"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="57"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="56"/>
+      <c r="C11" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="56"/>
+      <c r="C12" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="56"/>
+      <c r="C13" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="56"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="56"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="57"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="56"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="56"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="56"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="56"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="56"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="57"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="56"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="56"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="56"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="56"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="56"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="56"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="56"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="57"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16819,7 +16816,7 @@
   <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -16833,75 +16830,75 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U3" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" s="72"/>
+        <v>311</v>
+      </c>
+      <c r="N4" s="71"/>
       <c r="O4" s="53"/>
       <c r="P4" s="53"/>
       <c r="Q4" s="53"/>
       <c r="R4" s="53"/>
       <c r="S4" s="53"/>
-      <c r="T4" s="72"/>
+      <c r="T4" s="71"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" s="72"/>
+        <v>312</v>
+      </c>
+      <c r="N5" s="71"/>
       <c r="O5" s="53"/>
       <c r="P5" s="53"/>
-      <c r="Q5" s="72"/>
+      <c r="Q5" s="71"/>
       <c r="R5" s="53"/>
       <c r="S5" s="53"/>
-      <c r="T5" s="72"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="N6" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="O6" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="P6" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="Q6" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="R6" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="S6" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="R6" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="S6" s="53" t="s">
-        <v>319</v>
-      </c>
       <c r="T6" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -16926,20 +16923,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>276</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -16947,12 +16944,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -16960,7 +16957,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -16970,7 +16967,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -16978,7 +16975,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -16986,15 +16983,15 @@
         <v>3</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -17002,7 +16999,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -17010,54 +17007,54 @@
         <v>3</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>294</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AC6F24-08DE-45D9-8627-99A687DFD50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C787705E-6A0F-4287-938F-4CCB64E36A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="383">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -4485,20 +4485,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大分類</t>
-    <rPh sb="0" eb="3">
-      <t>ダイブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小分類</t>
-    <rPh sb="0" eb="3">
-      <t>ショウブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>目的選択肢の整理</t>
     <rPh sb="0" eb="2">
       <t>モクテキ</t>
@@ -4512,47 +4498,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>旅行</t>
-    <rPh sb="0" eb="2">
-      <t>リョコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>試験</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>友達</t>
-    <rPh sb="0" eb="2">
-      <t>トモダチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IELTS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TOEFL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TOEIC　LR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TOEIC　SW</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4652,6 +4602,143 @@
   </si>
   <si>
     <t>ざっくり作成済</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※goalListData.dartにパラメータとして定義</t>
+    <rPh sb="27" eb="29">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>exam</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>friends</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Collaborate with foreign members</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Be assigned to international projects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Communicate with locals on the trip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Join international meetup and make friends</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Take business trips overseas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Get job overseas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image file name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hash tag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Make friends on this App</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Score the points on IELTS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Score the points on TOEFL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Score the points on TOEIC Listening &amp; Reading</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Score the points on TOEIC Speaking &amp; Writing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOEIC L&amp;R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOEIC S&amp;W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>International projects</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Trip communication</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>International collaboration</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Business trips</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Work overseas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>International meetup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Through this App</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4825,7 +4912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4880,8 +4967,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5051,12 +5144,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -5230,14 +5351,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -5248,6 +5361,60 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11092,15 +11259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>573087</xdr:colOff>
+      <xdr:colOff>437049</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>173037</xdr:rowOff>
+      <xdr:rowOff>64110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>464037</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11115,8 +11282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5897562" y="1182687"/>
-          <a:ext cx="3309938" cy="969963"/>
+          <a:off x="10877914" y="1075225"/>
+          <a:ext cx="3324104" cy="419467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11161,6 +11328,233 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>→そこに特化した機能が活きるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260226</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284039</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3F1180-554C-CB21-088B-BCAF9FFD2D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10701091" y="2287342"/>
+          <a:ext cx="3320929" cy="422642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ自動生成関数作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20392</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>936135</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064F969C-62FE-7F4E-3D6A-8F6AA35C55D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8014065" y="690074"/>
+          <a:ext cx="3333628" cy="511541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>旅行で友達に自慢したいとか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3478578</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4101AE-A08F-1D44-8260-F201D9A25C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3494331" y="1686536"/>
+          <a:ext cx="3339978" cy="1090368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>IELTS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>は技能ごとの点数？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>目標設定単位検討、、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>複数対応？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13397,8 +13791,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14764,7 +15158,7 @@
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>148</v>
@@ -14912,7 +15306,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -14922,7 +15316,7 @@
     <col min="3" max="3" width="21.58203125" style="41" customWidth="1"/>
     <col min="4" max="4" width="33.9140625" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.4140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="7" style="41" customWidth="1"/>
     <col min="7" max="10" width="14.6640625" style="41" customWidth="1"/>
     <col min="11" max="11" width="8.4140625" style="41" customWidth="1"/>
     <col min="12" max="12" width="45.5" style="41" customWidth="1"/>
@@ -14942,12 +15336,12 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
@@ -15004,7 +15398,7 @@
         <v>259</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72"/>
@@ -15079,7 +15473,7 @@
       <c r="E7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="58" t="s">
         <v>259</v>
       </c>
       <c r="G7" s="46" t="s">
@@ -15099,13 +15493,13 @@
       <c r="D8" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="99" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="100" t="s">
         <v>175</v>
       </c>
       <c r="H8" s="72"/>
@@ -15158,8 +15552,8 @@
       <c r="F10" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="86" t="s">
-        <v>356</v>
+      <c r="G10" s="82" t="s">
+        <v>348</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
@@ -15181,7 +15575,7 @@
       <c r="F11" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="82" t="s">
         <v>175</v>
       </c>
       <c r="H11" s="72"/>
@@ -15206,7 +15600,7 @@
       <c r="F12" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H12" s="72"/>
@@ -15232,7 +15626,7 @@
       <c r="F13" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H13" s="72"/>
@@ -15258,7 +15652,7 @@
       <c r="F14" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H14" s="72"/>
@@ -15284,7 +15678,7 @@
       <c r="F15" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H15" s="72"/>
@@ -15310,7 +15704,7 @@
       <c r="F16" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H16" s="72"/>
@@ -15338,7 +15732,7 @@
       <c r="F17" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H17" s="72"/>
@@ -15364,7 +15758,7 @@
       <c r="F18" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="82" t="s">
         <v>174</v>
       </c>
       <c r="H18" s="72"/>
@@ -15392,7 +15786,7 @@
       <c r="F19" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="82" t="s">
         <v>175</v>
       </c>
       <c r="H19" s="72"/>
@@ -15418,7 +15812,7 @@
       <c r="F20" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="82" t="s">
         <v>175</v>
       </c>
       <c r="H20" s="72"/>
@@ -15444,7 +15838,7 @@
       <c r="F21" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="82" t="s">
         <v>145</v>
       </c>
       <c r="H21" s="72"/>
@@ -15470,7 +15864,7 @@
       <c r="F22" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="82" t="s">
         <v>175</v>
       </c>
       <c r="H22" s="72"/>
@@ -15496,7 +15890,7 @@
       <c r="F23" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="82" t="s">
         <v>145</v>
       </c>
       <c r="H23" s="72"/>
@@ -15519,7 +15913,7 @@
       <c r="F24" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="82" t="s">
         <v>145</v>
       </c>
       <c r="H24" s="72"/>
@@ -15545,7 +15939,7 @@
       <c r="F25" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="82" t="s">
         <v>145</v>
       </c>
       <c r="H25" s="72"/>
@@ -15571,7 +15965,7 @@
       <c r="F26" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="82" t="s">
         <v>145</v>
       </c>
       <c r="H26" s="72"/>
@@ -16172,7 +16566,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -16250,7 +16644,7 @@
         <v>334</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="76" t="s">
@@ -16400,407 +16794,377 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F64A74F-865B-47E0-89FA-0D50BB69C36B}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="41" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="41"/>
-    <col min="3" max="3" width="14.4140625" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="41"/>
+    <col min="1" max="1" width="3.75" style="76" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="60.9140625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="27.9140625" style="76" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.9140625" style="76" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="15.9140625" style="76" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="55"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="55"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="F8" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="55"/>
+      <c r="C9" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="D9" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H2" s="41" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="55"/>
+      <c r="C10" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="41" t="s">
+    <row r="11" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="55"/>
+      <c r="C11" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41" t="s">
+    <row r="12" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="55"/>
+      <c r="C13" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="93"/>
+      <c r="F13" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="56"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="55"/>
+      <c r="C14" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="93"/>
+      <c r="F14" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="56"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41" t="s">
+    <row r="15" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="55"/>
+      <c r="C15" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="93"/>
+      <c r="F15" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="56"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="41" t="s">
+    <row r="16" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="41" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="55"/>
+      <c r="C17" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="41" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="55"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="41" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="69"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="56"/>
-      <c r="C12" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="56"/>
-      <c r="C13" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41" t="s">
+      <c r="B20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="56"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41" t="s">
+      <c r="D20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="56"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41" t="s">
+      <c r="E20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41" t="s">
+      <c r="F20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41" t="s">
+      <c r="G20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="56"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="41" t="s">
+      <c r="H20" s="76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="56"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="56"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="56"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="56"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="57"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="80" t="s">
-        <v>349</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="56"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="56"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="56"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="56"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="56"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="56"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="56"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="57"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="41" t="s">
+      <c r="I20" s="76" t="s">
         <v>35</v>
       </c>
     </row>

--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C787705E-6A0F-4287-938F-4CCB64E36A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F6A2C-4272-4E29-8103-FB95CCFD75F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,23 +18,24 @@
     <sheet name="利用手順" sheetId="14" r:id="rId3"/>
     <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId4"/>
     <sheet name="目的選択肢の整理" sheetId="20" r:id="rId5"/>
-    <sheet name="Advices" sheetId="17" r:id="rId6"/>
-    <sheet name="支払モジュール検討" sheetId="16" r:id="rId7"/>
-    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId8"/>
-    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId9"/>
-    <sheet name="追加のアイディア" sheetId="11" r:id="rId10"/>
-    <sheet name="logoAndName" sheetId="10" r:id="rId11"/>
-    <sheet name="（参考）計算シート" sheetId="5" r:id="rId12"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId13"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId14"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId15"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId16"/>
-    <sheet name="template" sheetId="3" r:id="rId17"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId18"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId19"/>
+    <sheet name="目標時間設定のデザイン" sheetId="21" r:id="rId6"/>
+    <sheet name="Advices" sheetId="17" r:id="rId7"/>
+    <sheet name="支払モジュール検討" sheetId="16" r:id="rId8"/>
+    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId9"/>
+    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId10"/>
+    <sheet name="追加のアイディア" sheetId="11" r:id="rId11"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId12"/>
+    <sheet name="（参考）計算シート" sheetId="5" r:id="rId13"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId14"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId15"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId16"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId17"/>
+    <sheet name="template" sheetId="3" r:id="rId18"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId19"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$M$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
   <si>
     <t>1.</t>
     <phoneticPr fontId="2"/>
@@ -4238,10 +4239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レイアウトチェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4739,6 +4736,78 @@
   </si>
   <si>
     <t>Through this App</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目標時間設定のデザイン</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→自然と実績をみる画面のデザインとリンクする</t>
+    <rPh sb="1" eb="3">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学習者の設定している学習曜日をもとに教師からアプローチ？？</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>httpspub.devpackageschat_bubbles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウト調整中</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウトをかっちり作成中、レビュー中などの状態</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4912,7 +4981,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4970,6 +5039,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5177,7 +5252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -5405,17 +5480,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5722,6 +5798,307 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1749426</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2559051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>980523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D094C09E-71D1-40A2-8D86-FEA9674CB36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10417176" y="190500"/>
+          <a:ext cx="809625" cy="790023"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学習進捗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495852</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1292225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1094823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1F5AF6-F7C7-4BA9-A573-7E5A77644BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163602" y="304800"/>
+          <a:ext cx="796373" cy="790023"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学習者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コミュニティ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勉強仲間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2620065</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1079363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F0075-F995-419F-A3E1-81334F7AE018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7944540" y="295690"/>
+          <a:ext cx="790023" cy="783673"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>英会話</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レッスン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1211262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>777938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA17CFE-D2C6-4F13-A62D-2B1140B110CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3992562" y="777938"/>
+          <a:ext cx="3046413" cy="615823"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28962"/>
+            <a:gd name="adj2" fmla="val 105808"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>「格安オンライン英会話」として、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>これを解決するのがメインの顧客への価値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -6024,7 +6401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9843,7 +10220,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10447,7 +10824,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11566,6 +11943,99 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44584</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E3E1DA-7AFE-1B99-8A1A-D773166E9922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="1495425"/>
+          <a:ext cx="2606809" cy="4334098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BCD6FB-3C7F-C4D7-FB1A-420F6B6ACF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="1724025"/>
+          <a:ext cx="3549650" cy="4907889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
@@ -11646,7 +12116,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11714,7 +12184,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11821,7 +12291,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12013,7 +12483,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12393,307 +12863,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>「目標を設定してそれを達成する」それ自体に達成感などを感じられるようにする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1749426</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2559051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>980523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D094C09E-71D1-40A2-8D86-FEA9674CB36F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10417176" y="190500"/>
-          <a:ext cx="809625" cy="790023"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>学習進捗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495852</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1292225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1094823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1F5AF6-F7C7-4BA9-A573-7E5A77644BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163602" y="304800"/>
-          <a:ext cx="796373" cy="790023"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>学習者</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コミュニティ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勉強仲間</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2620065</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66813</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1079363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F0075-F995-419F-A3E1-81334F7AE018}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7944540" y="295690"/>
-          <a:ext cx="790023" cy="783673"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>英会話</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レッスン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1211262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>777938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA17CFE-D2C6-4F13-A62D-2B1140B110CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3992562" y="777938"/>
-          <a:ext cx="3046413" cy="615823"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -28962"/>
-            <a:gd name="adj2" fmla="val 105808"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>「格安オンライン英会話」として、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>これを解決するのがメインの顧客への価値</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13473,6 +13642,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
   <dimension ref="D7:J24"/>
   <sheetViews>
@@ -13568,7 +13754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
   <dimension ref="B6:B12"/>
   <sheetViews>
@@ -13610,7 +13796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -13733,7 +13919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13749,7 +13935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -13791,8 +13977,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14241,7 +14427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -14586,7 +14772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14608,7 +14794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -14806,7 +14992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -14825,210 +15011,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="5.08203125" style="12" customWidth="1"/>
-    <col min="4" max="10" width="20.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C79A8D-AE5F-4EF9-B6E2-C928C76037C9}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15158,139 +15146,345 @@
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="42" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D24" s="42" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="44" t="s">
+    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="44" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="47" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D27" s="47" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D30" s="42" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="44" t="s">
+    <row r="32" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="44" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C32" s="47" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D33" s="47" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C34" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C36" s="42" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C37" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="41" t="s">
+      <c r="D38" s="42"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="41" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="41" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C41" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" s="41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C44" s="41" t="s">
         <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" style="12" customWidth="1"/>
+    <col min="4" max="10" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="1"/>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -15302,11 +15496,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15317,16 +15511,16 @@
     <col min="4" max="4" width="33.9140625" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.4140625" style="41" customWidth="1"/>
     <col min="6" max="6" width="7" style="41" customWidth="1"/>
-    <col min="7" max="10" width="14.6640625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="8.4140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="45.5" style="41" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" style="41"/>
-    <col min="14" max="14" width="19.75" style="41" customWidth="1"/>
-    <col min="15" max="15" width="40.1640625" style="41" customWidth="1"/>
-    <col min="16" max="16384" width="8.58203125" style="41"/>
+    <col min="7" max="9" width="14.6640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="8.4140625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="45.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="8.58203125" style="41"/>
+    <col min="13" max="13" width="19.75" style="41" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>170</v>
       </c>
@@ -15334,16 +15528,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
       <c r="G2" s="79" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="48" t="s">
         <v>171</v>
       </c>
@@ -15363,25 +15556,22 @@
         <v>250</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
         <v>255</v>
       </c>
@@ -15398,20 +15588,19 @@
         <v>259</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="46" t="s">
+      <c r="J4" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="41" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="49" t="s">
@@ -15424,24 +15613,21 @@
         <v>259</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>323</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="H5" s="72"/>
       <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="L5" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="49" t="s">
@@ -15458,13 +15644,12 @@
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="46" t="s">
+      <c r="J6" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
       <c r="D7" s="49" t="s">
@@ -15481,41 +15666,39 @@
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="46" t="s">
+      <c r="J7" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.35">
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
       <c r="D8" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="97" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="98" t="s">
         <v>175</v>
       </c>
       <c r="H8" s="72"/>
       <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="46" t="s">
+      <c r="J8" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="K8" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="L8" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="49" t="s">
@@ -15532,13 +15715,12 @@
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="46" t="s">
+      <c r="J9" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="55"/>
       <c r="C10" s="54" t="s">
         <v>304</v>
@@ -15553,17 +15735,16 @@
         <v>259</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="46" t="s">
+      <c r="J10" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="55"/>
       <c r="C11" s="69"/>
       <c r="D11" s="49" t="s">
@@ -15580,13 +15761,12 @@
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="46" t="s">
+      <c r="J11" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="55"/>
       <c r="C12" s="54" t="s">
         <v>305</v>
@@ -15605,16 +15785,17 @@
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="46" t="s">
+      <c r="J12" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="41" t="s">
+      <c r="K12" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
       <c r="D13" s="49" t="s">
@@ -15631,16 +15812,15 @@
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="46" t="s">
+      <c r="J13" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="41" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="49" t="s">
@@ -15657,16 +15837,15 @@
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="46" t="s">
+      <c r="J14" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="41" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="49" t="s">
@@ -15683,16 +15862,15 @@
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="46" t="s">
+      <c r="J15" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="41" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="49" t="s">
@@ -15709,18 +15887,17 @@
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="46" t="s">
+      <c r="J16" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="52" t="s">
+      <c r="K16" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="49" t="s">
@@ -15737,16 +15914,15 @@
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="46" t="s">
+      <c r="J17" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="41" t="s">
+      <c r="K17" s="49"/>
+      <c r="L17" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="55"/>
       <c r="C18" s="69"/>
       <c r="D18" s="49" t="s">
@@ -15763,16 +15939,15 @@
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="46" t="s">
+      <c r="J18" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="41" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="55"/>
       <c r="C19" s="54" t="s">
         <v>321</v>
@@ -15791,20 +15966,19 @@
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="46" t="s">
+      <c r="J19" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="41" t="s">
+      <c r="K19" s="49"/>
+      <c r="L19" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>15</v>
@@ -15817,20 +15991,19 @@
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="46" t="s">
+      <c r="J20" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="41" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>15</v>
@@ -15843,16 +16016,15 @@
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="46" t="s">
+      <c r="J21" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="41" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="49" t="s">
@@ -15869,16 +16041,15 @@
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="46" t="s">
+      <c r="J22" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="41" t="s">
+      <c r="K22" s="49"/>
+      <c r="L22" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="49" t="s">
@@ -15895,13 +16066,12 @@
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="46" t="s">
+      <c r="J23" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="49"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="49" t="s">
@@ -15918,16 +16088,15 @@
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="46" t="s">
+      <c r="J24" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="41" t="s">
+      <c r="K24" s="49"/>
+      <c r="L24" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="49" t="s">
@@ -15944,16 +16113,15 @@
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="46" t="s">
+      <c r="J25" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="41" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
@@ -15970,18 +16138,17 @@
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="46" t="s">
+      <c r="J26" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="K26" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="49" t="s">
@@ -15998,16 +16165,15 @@
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="46" t="s">
+      <c r="J27" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="41" t="s">
+      <c r="K27" s="49"/>
+      <c r="L27" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="49" t="s">
@@ -16024,16 +16190,15 @@
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="46" t="s">
+      <c r="J28" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="41" t="s">
+      <c r="K28" s="49"/>
+      <c r="L28" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="49" t="s">
@@ -16050,18 +16215,17 @@
       </c>
       <c r="H29" s="72"/>
       <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="46" t="s">
+      <c r="J29" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="K29" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="M29" s="41" t="s">
+      <c r="L29" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="49" t="s">
@@ -16078,16 +16242,15 @@
       </c>
       <c r="H30" s="72"/>
       <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="46" t="s">
+      <c r="J30" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="41" t="s">
+      <c r="K30" s="49"/>
+      <c r="L30" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="54" t="s">
@@ -16104,13 +16267,12 @@
       </c>
       <c r="H31" s="73"/>
       <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="46" t="s">
+      <c r="J31" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="54"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="54"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="54" t="s">
@@ -16127,16 +16289,15 @@
       </c>
       <c r="H32" s="73"/>
       <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="59" t="s">
+      <c r="J32" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="L32" s="54"/>
-      <c r="M32" s="41" t="s">
+      <c r="K32" s="54"/>
+      <c r="L32" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B33" s="60" t="s">
         <v>203</v>
       </c>
@@ -16155,16 +16316,15 @@
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="63" t="s">
+      <c r="J33" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="41" t="s">
+      <c r="K33" s="61"/>
+      <c r="L33" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="56"/>
       <c r="C34" s="56"/>
       <c r="D34" s="42" t="s">
@@ -16181,16 +16341,15 @@
       </c>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="46" t="s">
+      <c r="J34" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="41" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="42" t="s">
@@ -16207,16 +16366,15 @@
       </c>
       <c r="H35" s="72"/>
       <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="46" t="s">
+      <c r="J35" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="M35" s="41" t="s">
+      <c r="K35" s="42"/>
+      <c r="L35" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
       <c r="C36" s="56"/>
       <c r="D36" s="42" t="s">
@@ -16233,16 +16391,15 @@
       </c>
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="46" t="s">
+      <c r="J36" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="41" t="s">
+      <c r="K36" s="42"/>
+      <c r="L36" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
       <c r="D37" s="42" t="s">
@@ -16259,16 +16416,15 @@
       </c>
       <c r="H37" s="72"/>
       <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="46" t="s">
+      <c r="J37" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="L37" s="42"/>
-      <c r="M37" s="41" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="56"/>
       <c r="D38" s="42" t="s">
@@ -16285,16 +16441,15 @@
       </c>
       <c r="H38" s="72"/>
       <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="46" t="s">
+      <c r="J38" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="42"/>
-      <c r="M38" s="41" t="s">
+      <c r="K38" s="42"/>
+      <c r="L38" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
       <c r="D39" s="42" t="s">
@@ -16311,16 +16466,15 @@
       </c>
       <c r="H39" s="72"/>
       <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="46" t="s">
+      <c r="J39" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="42"/>
-      <c r="M39" s="41" t="s">
+      <c r="K39" s="42"/>
+      <c r="L39" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="42" t="s">
@@ -16337,16 +16491,15 @@
       </c>
       <c r="H40" s="72"/>
       <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="46" t="s">
+      <c r="J40" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41" t="s">
+      <c r="K40" s="42"/>
+      <c r="L40" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B41" s="60" t="s">
         <v>204</v>
       </c>
@@ -16363,14 +16516,13 @@
       <c r="G41" s="63"/>
       <c r="H41" s="74"/>
       <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="41" t="s">
+      <c r="J41" s="63"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
       <c r="D42" s="67" t="s">
@@ -16385,16 +16537,15 @@
       <c r="G42" s="46"/>
       <c r="H42" s="72"/>
       <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="42" t="s">
+      <c r="J42" s="46"/>
+      <c r="K42" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="41" t="s">
+      <c r="L42" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
       <c r="D43" s="67" t="s">
@@ -16409,14 +16560,13 @@
       <c r="G43" s="46"/>
       <c r="H43" s="72"/>
       <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="41" t="s">
+      <c r="J43" s="46"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="56"/>
       <c r="C44" s="56"/>
       <c r="D44" s="67"/>
@@ -16425,14 +16575,13 @@
       <c r="G44" s="46"/>
       <c r="H44" s="72"/>
       <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="41" t="s">
+      <c r="J44" s="46"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
       <c r="D45" s="67"/>
@@ -16441,14 +16590,13 @@
       <c r="G45" s="46"/>
       <c r="H45" s="72"/>
       <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="41" t="s">
+      <c r="J45" s="46"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="67"/>
@@ -16457,14 +16605,13 @@
       <c r="G46" s="46"/>
       <c r="H46" s="72"/>
       <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="41" t="s">
+      <c r="J46" s="46"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
       <c r="D47" s="67"/>
@@ -16473,14 +16620,13 @@
       <c r="G47" s="46"/>
       <c r="H47" s="72"/>
       <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="41" t="s">
+      <c r="J47" s="46"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
       <c r="D48" s="67"/>
@@ -16489,14 +16635,13 @@
       <c r="G48" s="46"/>
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="41" t="s">
+      <c r="J48" s="46"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
@@ -16515,7 +16660,7 @@
       <c r="H49" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I49" s="41" t="s">
+      <c r="J49" s="41" t="s">
         <v>35</v>
       </c>
       <c r="K49" s="41" t="s">
@@ -16524,12 +16669,9 @@
       <c r="L49" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M49" s="41" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:L49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16538,19 +16680,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB4657AD-86BF-4CA8-90C1-F9EBECBB34EA}">
           <x14:formula1>
-            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$18:$C$23</xm:f>
+            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$18:$C$24</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21DA42DC-F4CF-44D6-B2BC-7675E9E5D12D}">
           <x14:formula1>
-            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$27:$C$29</xm:f>
+            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$28:$C$30</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K48</xm:sqref>
+          <xm:sqref>J4:J48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{628EF5A0-BDD8-46F8-AABA-B79449D40655}">
           <x14:formula1>
-            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$33:$C$37</xm:f>
+            <xm:f>'利用手順（簡易めも）ガイダンス'!$C$34:$C$38</xm:f>
           </x14:formula1>
           <xm:sqref>F4:F48</xm:sqref>
         </x14:dataValidation>
@@ -16562,11 +16704,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D14F87-625A-4C0B-A3D8-95639FCF1305}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -16582,28 +16724,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="77" t="s">
+      <c r="G3" s="77" t="s">
         <v>326</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>327</v>
       </c>
       <c r="H3" s="76" t="s">
         <v>35</v>
@@ -16614,16 +16756,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="78" t="s">
-        <v>334</v>
-      </c>
       <c r="F4" s="78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="76" t="s">
@@ -16635,16 +16777,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="76" t="s">
@@ -16656,16 +16798,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="76" t="s">
@@ -16677,16 +16819,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="76" t="s">
@@ -16698,13 +16840,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="78" t="s">
         <v>333</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>334</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="49"/>
@@ -16714,13 +16856,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="49"/>
@@ -16730,13 +16872,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -16749,13 +16891,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -16784,6 +16926,11 @@
       </c>
       <c r="H12" s="76" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="76" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -16817,10 +16964,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I1" s="76" t="s">
         <v>35</v>
@@ -16828,7 +16975,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="87" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89"/>
@@ -16838,25 +16985,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="92" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F3" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="H3" s="91" t="s">
         <v>365</v>
-      </c>
-      <c r="H3" s="91" t="s">
-        <v>366</v>
       </c>
       <c r="I3" s="76" t="s">
         <v>35</v>
@@ -16864,20 +17011,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="76" t="s">
@@ -16922,21 +17069,21 @@
     </row>
     <row r="8" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E8" s="95"/>
       <c r="F8" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I8" s="76" t="s">
         <v>35</v>
@@ -16945,18 +17092,18 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="55"/>
       <c r="C9" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="93"/>
       <c r="F9" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I9" s="76" t="s">
         <v>35</v>
@@ -16965,18 +17112,18 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="55"/>
       <c r="C10" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E10" s="93"/>
       <c r="F10" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I10" s="76" t="s">
         <v>35</v>
@@ -16985,18 +17132,18 @@
     <row r="11" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="55"/>
       <c r="C11" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E11" s="93"/>
       <c r="F11" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I11" s="76" t="s">
         <v>35</v>
@@ -17004,17 +17151,17 @@
     </row>
     <row r="12" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" s="95"/>
       <c r="F12" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
@@ -17025,14 +17172,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="55"/>
       <c r="C13" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45"/>
@@ -17043,17 +17190,17 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="55"/>
       <c r="C14" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E14" s="93"/>
       <c r="F14" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="76" t="s">
@@ -17063,17 +17210,17 @@
     <row r="15" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="55"/>
       <c r="C15" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E15" s="93"/>
       <c r="F15" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="76" t="s">
@@ -17082,17 +17229,17 @@
     </row>
     <row r="16" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E16" s="95"/>
       <c r="F16" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="62"/>
@@ -17103,14 +17250,14 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="55"/>
       <c r="C17" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E17" s="93"/>
       <c r="F17" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
@@ -17176,6 +17323,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BE22BD-AAC7-4474-8335-7E4518E5E71A}">
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198CE80C-0E09-4C81-89AF-2BDA14B068B0}">
   <dimension ref="B2:U12"/>
   <sheetViews>
@@ -17257,12 +17435,12 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -17272,7 +17450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E900EB-F3A7-4005-ACFD-1E041368A13A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -17432,7 +17610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A646148-D710-48AC-A0AE-37805F825ECB}">
   <dimension ref="A7"/>
   <sheetViews>
@@ -17453,21 +17631,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480583A3-484A-490A-AD92-CB67B157550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84DD8A-EEEB-4C8D-9B7C-DE3F267062BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
     <sheet name="利用手順（簡易めも）ガイダンス" sheetId="12" r:id="rId2"/>
     <sheet name="利用手順" sheetId="14" r:id="rId3"/>
-    <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId4"/>
-    <sheet name="目的選択肢の整理" sheetId="20" r:id="rId5"/>
-    <sheet name="支払モジュール検討" sheetId="16" r:id="rId6"/>
-    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId7"/>
-    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId8"/>
-    <sheet name="追加のアイディア" sheetId="11" r:id="rId9"/>
-    <sheet name="logoAndName" sheetId="10" r:id="rId10"/>
-    <sheet name="（参考）計算シート" sheetId="5" r:id="rId11"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId12"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId13"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId14"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId15"/>
-    <sheet name="template" sheetId="3" r:id="rId16"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId17"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId18"/>
+    <sheet name="問い合わせページ検討" sheetId="21" r:id="rId4"/>
+    <sheet name="レッスン成立のパターン・手順" sheetId="18" r:id="rId5"/>
+    <sheet name="目的選択肢の整理" sheetId="20" r:id="rId6"/>
+    <sheet name="支払モジュール検討" sheetId="16" r:id="rId7"/>
+    <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId8"/>
+    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId9"/>
+    <sheet name="追加のアイディア" sheetId="11" r:id="rId10"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId11"/>
+    <sheet name="（参考）計算シート" sheetId="5" r:id="rId12"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId13"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId14"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId15"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId16"/>
+    <sheet name="template" sheetId="3" r:id="rId17"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId18"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="415">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -3894,10 +3895,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>教師検索</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教師プロフィール確認</t>
     <rPh sb="0" eb="2">
       <t>キョウシ</t>
@@ -4464,32 +4461,6 @@
   </si>
   <si>
     <t>httpspub.devpackageschat_bubbles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウト調整中</t>
-    <rPh sb="5" eb="7">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レイアウトをかっちり作成中、レビュー中などの状態</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4576,6 +4547,713 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトをかっちり作成中、レビュー待ち、中の状態</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウトレビュー中</t>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空き時間で検索
+→結果表示はカレンダのタイムライン表示</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール情報で検索
+→結果表示はリスト形式で検索</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師検索（プロフィール条件）</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師検索（空き時間条件）</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタメンテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能・サービス改善→改善依頼の吸い上げ</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合の洗い出し、修正→不具合報告収集</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師が想定（←？）通りワークしているか（レッスン内容の評価、不正な動きをする？教師のレポート）→教師の評価</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪質学習者の洗い出し</t>
+    <rPh sb="0" eb="2">
+      <t>アクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>量</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせの質、量を向上するため、下記の方針とする</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせページ検討</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的達成のための基本方針</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善依頼</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合報告</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的に記載の4つの種類ごとに専用ページを用意し、それぞれに応じた必要な画面項目を配置する</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特典？の付与？→サービスの仕様の話、劣後して別途検討</t>
+    <rPh sb="0" eb="2">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レツゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←問い合わせが多い想定される順（ユーザとして報告の必要性が高い順、）</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヒツヨウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目検討</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師への評価（不満等）（学習者のみ）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フマン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪質学習者のレポート（教師のみ）</t>
+    <rPh sb="0" eb="2">
+      <t>アクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の画面ごとに必要最低限の画面項目を表示</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ヒツヨウサイテイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面項目の選定時の観点</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センテイジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→何らかの形ですべての事象が報告できるように</t>
+    <rPh sb="1" eb="2">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1画面に収まるようにする、また、なるべくスクロールせずに全項目が見えることが望ましい</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必ずフリーフォーマットのその他備考的な項目は必ず追加</t>
+    <rPh sb="0" eb="1">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ入力の簡便化で報告のハードルを下げる→各画面の項目は可能な限り少なくする</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンベンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と言うか最初はどのような報告が来るかわからないため、下手に選択肢から選ばせようとしても失敗するのでは</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘタ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面で必ず必要な項目のみ専用ボックスで用意し、他はフリーフォーマットで入力させる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoLive後に問い合わせ傾向がわかってきたら再検討</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>サイケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不適切教師</t>
+    <rPh sb="0" eb="3">
+      <t>フテキセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不適切教師の報告（学習者のみ）</t>
+    <rPh sb="0" eb="3">
+      <t>フテキセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪質学習者の報告（教師のみ）</t>
+    <rPh sb="0" eb="2">
+      <t>アクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教師のuserDocIDのコード（Friendデータから選択）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪質学習者</t>
+    <rPh sb="0" eb="2">
+      <t>アクシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習者のuserDocIDのコード（Friendデータから選択）</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクショ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ(該当機能)</t>
+    <rPh sb="5" eb="7">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4743,7 +5421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4801,6 +5479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5008,7 +5692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5237,14 +5921,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12796,7 +13496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12809,7 +13511,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -12820,7 +13522,7 @@
       <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="97" t="s">
         <v>220</v>
       </c>
     </row>
@@ -12830,7 +13532,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -12917,7 +13619,7 @@
         <v>14</v>
       </c>
       <c r="Q18" s="39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -12929,7 +13631,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="96" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="39" t="s">
@@ -12948,7 +13650,7 @@
       <c r="C23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="97" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="42"/>
@@ -12957,7 +13659,7 @@
       <c r="C24" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="97" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="42"/>
@@ -12966,7 +13668,7 @@
       <c r="C25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="97" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="42"/>
@@ -12990,12 +13692,12 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="97" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="96" t="s">
         <v>224</v>
       </c>
       <c r="B31" s="39" t="s">
@@ -13011,7 +13713,7 @@
       <c r="B33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="97" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13042,7 +13744,7 @@
       <c r="B38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13057,7 +13759,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="98"/>
+      <c r="A42" s="96"/>
       <c r="B42" s="39" t="s">
         <v>227</v>
       </c>
@@ -13085,7 +13787,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -13105,22 +13807,22 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="98"/>
-      <c r="C50" s="99" t="s">
+      <c r="A50" s="96"/>
+      <c r="C50" s="97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="98"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="97" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="98"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="39" t="s">
         <v>3</v>
       </c>
@@ -13299,6 +14001,102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
+  <dimension ref="D7:J24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
   <dimension ref="B6:B12"/>
   <sheetViews>
@@ -13340,7 +14138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -13463,7 +14261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13479,7 +14277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -13521,8 +14319,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -13971,7 +14769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -14316,7 +15114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14338,7 +15136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -14536,7 +15334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -14555,7 +15353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -14757,13 +15555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C79A8D-AE5F-4EF9-B6E2-C928C76037C9}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="39" customWidth="1"/>
     <col min="4" max="4" width="65.83203125" style="39" customWidth="1"/>
     <col min="5" max="5" width="24.4140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="10.4140625" style="39" customWidth="1"/>
@@ -14865,7 +15665,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
@@ -14886,15 +15686,15 @@
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>147</v>
@@ -15038,11 +15838,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" activeCellId="2" sqref="A1 E31 D21"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15053,7 +15853,8 @@
     <col min="4" max="4" width="33.9140625" style="39" customWidth="1"/>
     <col min="5" max="5" width="11.4140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="7" style="39" customWidth="1"/>
-    <col min="7" max="9" width="14.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="17.4140625" style="39" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="39" customWidth="1"/>
     <col min="10" max="10" width="8.4140625" style="39" customWidth="1"/>
     <col min="11" max="11" width="45.5" style="39" customWidth="1"/>
     <col min="12" max="12" width="8.58203125" style="39"/>
@@ -15083,7 +15884,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>193</v>
@@ -15101,7 +15902,7 @@
         <v>248</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>171</v>
@@ -15118,7 +15919,7 @@
         <v>252</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>253</v>
@@ -15130,7 +15931,7 @@
         <v>256</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
@@ -15155,7 +15956,7 @@
         <v>256</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
@@ -15173,7 +15974,7 @@
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>135</v>
@@ -15182,7 +15983,7 @@
         <v>256</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
@@ -15191,11 +15992,11 @@
       </c>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="47" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>15</v>
@@ -15204,55 +16005,54 @@
         <v>256</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
       <c r="J7" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.35">
+      <c r="K7" s="98" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>173</v>
+      <c r="G8" s="78" t="s">
+        <v>144</v>
       </c>
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
       <c r="J8" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="D9" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="93" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="94" t="s">
         <v>173</v>
       </c>
       <c r="H9" s="68"/>
@@ -15260,15 +16060,18 @@
       <c r="J9" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="53"/>
-      <c r="C10" s="52" t="s">
-        <v>301</v>
-      </c>
+      <c r="C10" s="53"/>
       <c r="D10" s="47" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>15</v>
@@ -15276,8 +16079,8 @@
       <c r="F10" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G10" s="78" t="s">
-        <v>331</v>
+      <c r="G10" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
@@ -15288,18 +16091,20 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="53"/>
-      <c r="C11" s="66"/>
+      <c r="C11" s="52" t="s">
+        <v>300</v>
+      </c>
       <c r="D11" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
@@ -15310,41 +16115,36 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="53"/>
-      <c r="C12" s="52" t="s">
-        <v>302</v>
-      </c>
+      <c r="C12" s="66"/>
       <c r="D12" s="47" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="95" t="s">
-        <v>367</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>35</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52" t="s">
+        <v>301</v>
+      </c>
       <c r="D13" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>256</v>
@@ -15357,7 +16157,9 @@
       <c r="J13" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="47"/>
+      <c r="K13" s="95" t="s">
+        <v>366</v>
+      </c>
       <c r="L13" s="39" t="s">
         <v>35</v>
       </c>
@@ -15366,7 +16168,7 @@
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
       <c r="D14" s="47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>135</v>
@@ -15391,10 +16193,10 @@
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
       <c r="D15" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>256</v>
@@ -15416,7 +16218,7 @@
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
       <c r="D16" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>15</v>
@@ -15430,11 +16232,9 @@
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>154</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K16" s="47"/>
       <c r="L16" s="39" t="s">
         <v>35</v>
       </c>
@@ -15443,7 +16243,7 @@
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
       <c r="D17" s="47" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>15</v>
@@ -15457,21 +16257,23 @@
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>154</v>
+      </c>
       <c r="L17" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="53"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>256</v>
@@ -15491,11 +16293,9 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="53"/>
-      <c r="C19" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>142</v>
+      <c r="C19" s="66"/>
+      <c r="D19" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>135</v>
@@ -15504,12 +16304,12 @@
         <v>256</v>
       </c>
       <c r="G19" s="78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="68"/>
       <c r="J19" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="39" t="s">
@@ -15518,12 +16318,14 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="47" t="s">
-        <v>324</v>
+      <c r="C20" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>142</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>256</v>
@@ -15545,7 +16347,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>15</v>
@@ -15554,12 +16356,12 @@
         <v>256</v>
       </c>
       <c r="G21" s="78" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K21" s="47"/>
       <c r="L21" s="39" t="s">
@@ -15570,21 +16372,21 @@
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
       <c r="D22" s="47" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="39" t="s">
@@ -15595,35 +16397,38 @@
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K23" s="47"/>
+      <c r="L23" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="47" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G24" s="78" t="s">
         <v>144</v>
@@ -15634,29 +16439,26 @@
         <v>186</v>
       </c>
       <c r="K24" s="47"/>
-      <c r="L24" s="39" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="103" t="s">
         <v>144</v>
       </c>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="39" t="s">
@@ -15666,26 +16468,24 @@
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="43" t="s">
+      <c r="D26" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="G26" s="103" t="s">
         <v>144</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>156</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K26" s="47"/>
       <c r="L26" s="39" t="s">
         <v>35</v>
       </c>
@@ -15694,7 +16494,7 @@
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
       <c r="D27" s="47" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>15</v>
@@ -15702,15 +16502,17 @@
       <c r="F27" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="44" t="s">
-        <v>144</v>
+      <c r="G27" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K27" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="L27" s="39" t="s">
         <v>35</v>
       </c>
@@ -15719,10 +16521,10 @@
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="47" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>256</v>
@@ -15744,10 +16546,10 @@
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="D29" s="47" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>256</v>
@@ -15760,9 +16562,7 @@
       <c r="J29" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>271</v>
-      </c>
+      <c r="K29" s="47"/>
       <c r="L29" s="39" t="s">
         <v>35</v>
       </c>
@@ -15770,16 +16570,16 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="44" t="s">
+      <c r="D30" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" s="103" t="s">
         <v>144</v>
       </c>
       <c r="H30" s="68"/>
@@ -15787,7 +16587,9 @@
       <c r="J30" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K30" s="47"/>
+      <c r="K30" s="50" t="s">
+        <v>271</v>
+      </c>
       <c r="L30" s="39" t="s">
         <v>35</v>
       </c>
@@ -15795,98 +16597,98 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
-      <c r="D31" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="E31" s="47" t="s">
+      <c r="D31" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="52"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="47"/>
+      <c r="L31" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="44" t="s">
         <v>144</v>
       </c>
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="44" t="s">
         <v>185</v>
       </c>
       <c r="K32" s="52"/>
-      <c r="L32" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="60" t="s">
+    </row>
+    <row r="33" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="61" t="s">
+      <c r="G33" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="K33" s="59"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="43" t="s">
+    <row r="34" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="44" t="s">
+      <c r="G34" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="40"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="39" t="s">
         <v>35</v>
       </c>
@@ -15895,7 +16697,7 @@
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
       <c r="D35" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>15</v>
@@ -15909,7 +16711,7 @@
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
       <c r="J35" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K35" s="40"/>
       <c r="L35" s="39" t="s">
@@ -15920,10 +16722,10 @@
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="40" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>256</v>
@@ -15934,7 +16736,7 @@
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
       <c r="J36" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K36" s="40"/>
       <c r="L36" s="39" t="s">
@@ -15944,22 +16746,22 @@
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="43" t="s">
+      <c r="D37" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="103" t="s">
         <v>144</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
       <c r="J37" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K37" s="40"/>
       <c r="L37" s="39" t="s">
@@ -15970,21 +16772,21 @@
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F38" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
       <c r="J38" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K38" s="40"/>
       <c r="L38" s="39" t="s">
@@ -15995,7 +16797,7 @@
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>138</v>
@@ -16004,85 +16806,87 @@
         <v>256</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
       <c r="J39" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K39" s="40"/>
       <c r="L39" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F40" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
       <c r="J40" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="59"/>
+    <row r="41" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" s="40"/>
       <c r="L41" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="E42" s="40" t="s">
+    <row r="42" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="40" t="s">
-        <v>269</v>
-      </c>
+      <c r="F42" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" s="61"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="59"/>
       <c r="L42" s="39" t="s">
         <v>35</v>
       </c>
@@ -16091,19 +16895,21 @@
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="64" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E43" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="48" t="s">
-        <v>261</v>
+      <c r="F43" s="43" t="s">
+        <v>260</v>
       </c>
       <c r="G43" s="44"/>
       <c r="H43" s="68"/>
       <c r="I43" s="68"/>
       <c r="J43" s="44"/>
-      <c r="K43" s="40"/>
+      <c r="K43" s="40" t="s">
+        <v>269</v>
+      </c>
       <c r="L43" s="39" t="s">
         <v>35</v>
       </c>
@@ -16111,9 +16917,15 @@
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="43"/>
+      <c r="D44" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>261</v>
+      </c>
       <c r="G44" s="44"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
@@ -16126,10 +16938,16 @@
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="D45" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="103"/>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="44"/>
@@ -16169,8 +16987,8 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="64"/>
       <c r="E48" s="40"/>
       <c r="F48" s="43"/>
@@ -16184,36 +17002,51 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>35</v>
-      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="40"/>
       <c r="L49" s="39" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:L49" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:L50" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16224,19 +17057,19 @@
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$18:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G48</xm:sqref>
+          <xm:sqref>G4:G49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21DA42DC-F4CF-44D6-B2BC-7675E9E5D12D}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$28:$C$30</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J48</xm:sqref>
+          <xm:sqref>J4:J49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{628EF5A0-BDD8-46F8-AABA-B79449D40655}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$34:$C$38</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F48</xm:sqref>
+          <xm:sqref>F4:F49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16245,12 +17078,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D01C3AC-0B05-4F24-929A-B76E766ED848}">
+  <dimension ref="A1:S57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C11" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C12" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D13" s="39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D14" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D15" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D16" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E38" s="39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C49" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C53" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D14F87-625A-4C0B-A3D8-95639FCF1305}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -16266,28 +17425,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="71"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="73" t="s">
+      <c r="G3" s="73" t="s">
         <v>311</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>312</v>
       </c>
       <c r="H3" s="72" t="s">
         <v>35</v>
@@ -16298,16 +17457,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="74" t="s">
-        <v>319</v>
-      </c>
       <c r="F4" s="74" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="72" t="s">
@@ -16319,16 +17478,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="72" t="s">
@@ -16340,16 +17499,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="72" t="s">
@@ -16361,16 +17520,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="72" t="s">
@@ -16382,13 +17541,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="74" t="s">
         <v>318</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>319</v>
       </c>
       <c r="F8" s="74"/>
       <c r="G8" s="47"/>
@@ -16398,13 +17557,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F9" s="74"/>
       <c r="G9" s="47"/>
@@ -16414,13 +17573,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
@@ -16433,13 +17592,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
@@ -16472,7 +17631,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -16481,7 +17640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F64A74F-865B-47E0-89FA-0D50BB69C36B}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -16506,10 +17665,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I1" s="72" t="s">
         <v>35</v>
@@ -16517,7 +17676,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G2" s="84"/>
       <c r="H2" s="85"/>
@@ -16527,25 +17686,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F3" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="H3" s="87" t="s">
         <v>348</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>349</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>35</v>
@@ -16553,20 +17712,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="72" t="s">
@@ -16611,21 +17770,21 @@
     </row>
     <row r="8" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" s="91"/>
       <c r="F8" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" s="72" t="s">
         <v>35</v>
@@ -16634,18 +17793,18 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="53"/>
       <c r="C9" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I9" s="72" t="s">
         <v>35</v>
@@ -16654,18 +17813,18 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="53"/>
       <c r="C10" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I10" s="72" t="s">
         <v>35</v>
@@ -16674,18 +17833,18 @@
     <row r="11" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="53"/>
       <c r="C11" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="89"/>
       <c r="F11" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I11" s="72" t="s">
         <v>35</v>
@@ -16693,17 +17852,17 @@
     </row>
     <row r="12" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -16714,14 +17873,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="53"/>
       <c r="C13" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E13" s="89"/>
       <c r="F13" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -16732,17 +17891,17 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="53"/>
       <c r="C14" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14" s="89"/>
       <c r="F14" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="72" t="s">
@@ -16752,17 +17911,17 @@
     <row r="15" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="53"/>
       <c r="C15" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E15" s="89"/>
       <c r="F15" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="72" t="s">
@@ -16771,17 +17930,17 @@
     </row>
     <row r="16" spans="1:9" ht="15.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
@@ -16792,14 +17951,14 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="53"/>
       <c r="C17" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" s="89"/>
       <c r="F17" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
@@ -16864,7 +18023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E900EB-F3A7-4005-ACFD-1E041368A13A}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -17024,7 +18183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A646148-D710-48AC-A0AE-37805F825ECB}">
   <dimension ref="A7"/>
   <sheetViews>
@@ -17047,7 +18206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -17062,100 +18221,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
-  <dimension ref="D7:J24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
+++ b/zz_document/project_Parfait/1-2_運用方針-ユーザ分析-運用設計(initial_stage).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\StudioProjects\convas\zz_document\project_Parfait\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84DD8A-EEEB-4C8D-9B7C-DE3F267062BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB5F2E-36BA-49E3-A3A5-531725C55EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="844" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想(Initial Stage)" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="目的選択肢の整理" sheetId="20" r:id="rId6"/>
     <sheet name="支払モジュール検討" sheetId="16" r:id="rId7"/>
     <sheet name="(作成中)コンテンツ作成" sheetId="13" r:id="rId8"/>
-    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId9"/>
-    <sheet name="追加のアイディア" sheetId="11" r:id="rId10"/>
-    <sheet name="logoAndName" sheetId="10" r:id="rId11"/>
-    <sheet name="（参考）計算シート" sheetId="5" r:id="rId12"/>
-    <sheet name="提供価値" sheetId="9" r:id="rId13"/>
-    <sheet name="ユーザ分析" sheetId="6" r:id="rId14"/>
-    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId15"/>
-    <sheet name="継続のための施策" sheetId="8" r:id="rId16"/>
-    <sheet name="template" sheetId="3" r:id="rId17"/>
-    <sheet name="業務フロー→" sheetId="2" r:id="rId18"/>
-    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId19"/>
+    <sheet name="テーマカラーについての検討" sheetId="22" r:id="rId9"/>
+    <sheet name="logoAndName" sheetId="10" r:id="rId10"/>
+    <sheet name="中間成果物（参考資料）→" sheetId="15" r:id="rId11"/>
+    <sheet name="追加のアイディア" sheetId="11" r:id="rId12"/>
+    <sheet name="（参考）計算シート" sheetId="5" r:id="rId13"/>
+    <sheet name="提供価値" sheetId="9" r:id="rId14"/>
+    <sheet name="ユーザ分析" sheetId="6" r:id="rId15"/>
+    <sheet name="続かない理由（洗い出しメモ）" sheetId="7" r:id="rId16"/>
+    <sheet name="継続のための施策" sheetId="8" r:id="rId17"/>
+    <sheet name="template" sheetId="3" r:id="rId18"/>
+    <sheet name="業務フロー→" sheetId="2" r:id="rId19"/>
+    <sheet name="学習者-雇われ教師間" sheetId="4" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">利用手順!$A$3:$L$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="435">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -5257,12 +5258,284 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>パターン3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今話したいルーム</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配色のパターン</t>
+    <rPh sb="0" eb="2">
+      <t>ハイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用色数</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イロスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色の系統</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facebook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずAppbarの背景が白か色付きかを考えた</t>
+    <rPh sb="9" eb="11">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イロツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→デザインが基本的にシンプルな本アプリで、Appbarの背景も白系統にするとあまりにもシンプルなので、</t>
+    <rPh sb="6" eb="9">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色はつける</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のアプリを見るとやはり色付き（薄くても）で、Appbarの文字を黒にするのは難しい（圧倒的に数が少ないし、個人的にもよいデザインになるのがイメージしにくかった）</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イロツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>アットウテキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>コジンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、Appbarは色付き背景で白字</t>
+    <rPh sb="12" eb="14">
+      <t>イロツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrimaryColor（Appbar）：多少濃いめ</t>
+    <rPh sb="21" eb="23">
+      <t>タショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrimaryColor（Appbar）：濃いめ
+AccentColor1：薄め（PrimaryColorと同系色）</t>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ドウケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrimaryColor（Appbar）：薄め
+AccentColor1：薄め（PrimaryColorの補色）</t>
+    <rPh sb="21" eb="22">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrimaryColor（Appbar）：濃いめ
+AccentColor1：薄め（PrimaryColorと同系色）
+AccentColor2：超濃いめ（PrimaryColorと同系色）</t>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ドウケイショク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PrimaryColor（Appbar）：中間の濃さ
+AccentColor1：薄め（PrimaryColorと同系色）
+AccentColor2：中間の濃さ（PrimaryColorの補色）</t>
+    <rPh sb="21" eb="23">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ドウケイショク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>色はPrimaryColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>色とAccentColorが0～2色</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5420,6 +5693,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -5489,7 +5768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5687,12 +5966,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5926,12 +6214,6 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5945,6 +6227,14 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5952,6 +6242,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6249,6 +6544,307 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1749426</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2559051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>980523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D094C09E-71D1-40A2-8D86-FEA9674CB36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10417176" y="190500"/>
+          <a:ext cx="809625" cy="790023"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学習進捗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495852</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1292225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1094823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1F5AF6-F7C7-4BA9-A573-7E5A77644BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163602" y="304800"/>
+          <a:ext cx="796373" cy="790023"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学習者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コミュニティ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勉強仲間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2620065</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>295690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1079363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F0075-F995-419F-A3E1-81334F7AE018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7944540" y="295690"/>
+          <a:ext cx="790023" cy="783673"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>英会話</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レッスン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1211262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>777938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA17CFE-D2C6-4F13-A62D-2B1140B110CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3992562" y="777938"/>
+          <a:ext cx="3046413" cy="615823"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28962"/>
+            <a:gd name="adj2" fmla="val 105808"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>「格安オンライン英会話」として、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>これを解決するのがメインの顧客への価値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6552,7 +7148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10371,7 +10967,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10975,7 +11571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12244,6 +12840,1920 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2637981</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>181169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3001A193-3D94-A1AC-24BE-5C42837F1AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="800100"/>
+          <a:ext cx="4778621" cy="3762569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2755462</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FCBC87-75DC-58A9-884D-7C677344DDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="5334000"/>
+          <a:ext cx="4896102" cy="2032104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2669733</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4CDBB9-BAB4-D8FD-7A9C-421041643F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="7810500"/>
+          <a:ext cx="4819898" cy="4000706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>464641</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDAC3C3-B89D-3E4F-BCF2-835E8CB4B82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1317624" y="12191999"/>
+          <a:ext cx="12732704" cy="6581775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409869</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9E9AB0-53BC-5DC4-558C-A5FF9E24C623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="20002500"/>
+          <a:ext cx="12008006" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>39890</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198884</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C244E23D-CC79-9102-AD05-5FC8FF3D0B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2609152">
+          <a:off x="1354340" y="2906173"/>
+          <a:ext cx="3445119" cy="1530976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484390</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649734</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518EE120-C7D5-4F99-F41D-6BC494DA6DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2609152">
+          <a:off x="2456065" y="1734598"/>
+          <a:ext cx="3451469" cy="1530976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153987</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Callout: Bent Line 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8EBC6A-37F3-C6D7-4E44-99CA6F4ABC96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6069012" y="4659375"/>
+          <a:ext cx="3624263" cy="817499"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -55598"/>
+            <a:gd name="adj6" fmla="val -61179"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="009900"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AAAAA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550862</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Callout: Bent Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525B4E18-489F-933B-5847-ECC137285EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6465887" y="1722500"/>
+          <a:ext cx="3627438" cy="823849"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 58862"/>
+            <a:gd name="adj6" fmla="val -61704"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DDDD</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C9CE22-BA00-2A1A-5068-27AB7428BB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6540500" y="2978150"/>
+          <a:ext cx="2562225" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E42ED1-85EF-D0A3-BA9C-2CEB955FC8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9617075" y="2981325"/>
+          <a:ext cx="2565400" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5111E3C-75FB-338F-D95C-3824B566BBE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10960100" y="1635125"/>
+          <a:ext cx="2562225" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9791</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F53138-6EE8-7CA8-C7A6-241AB479716F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12956209" y="6045200"/>
+          <a:ext cx="5142799" cy="4432527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101858</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5EDADC-9EBD-AF83-5960-0EB09A709F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13458825" y="5762625"/>
+          <a:ext cx="5045334" cy="3972129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2923761</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9CC36E-9BD3-7EF1-A871-BA8965E4C2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="21745575"/>
+          <a:ext cx="5372376" cy="5381902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Callout: Bent Line 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC0D5B0-B297-8DB5-A498-9142E5334362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7350125" y="23831550"/>
+          <a:ext cx="4562475" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Primary Color1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類とアクセント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類が上限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211050</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>120862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B00139-F8BD-BB96-A5C9-5582B7278123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="28384500"/>
+          <a:ext cx="2336920" cy="4121362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124075</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>57401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C38F41-8096-F23B-F49A-53913EA50262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10738338" y="28327350"/>
+          <a:ext cx="4904160" cy="4877051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>336549</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Callout: Bent Line 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BEDFA2E-F9A8-DBEA-6852-7ADBFB797A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7143749" y="23672799"/>
+          <a:ext cx="5022850" cy="1035050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 492802"/>
+            <a:gd name="adj6" fmla="val -37604"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Primary Color1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類とアクセント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類が上限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>406656</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413F4EFA-5069-DED6-0E23-7FDF37623AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="28660725"/>
+          <a:ext cx="4988181" cy="4981831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Callout: Bent Line 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31EBDA4-B973-37B3-4452-268DA60B4618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105024" y="27082749"/>
+          <a:ext cx="5019675" cy="1035050"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 143109"/>
+            <a:gd name="adj6" fmla="val -23942"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Primary Color1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類とアクセント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類も可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545947</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>76400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACFFD1A-754B-E90E-3C78-357E8FF85F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368826" y="34671000"/>
+          <a:ext cx="7760099" cy="3886400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599522</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>31196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038501</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>162800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C249D3D3-96BD-4B08-9F2E-54EDAC1DA615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="599522" y="44227196"/>
+          <a:ext cx="3867979" cy="3941604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4878985" cy="2028929"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E20D63-27B9-476E-AB81-DB16D5362A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308652" y="5334000"/>
+          <a:ext cx="4878985" cy="2028929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4790081" cy="4000706"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC82D6FE-D266-41D7-A738-075672499437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308652" y="7810500"/>
+          <a:ext cx="4790081" cy="4000706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2331398" cy="4124537"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75279388-5CD0-448F-B910-7EF0BA76EE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308652" y="28384500"/>
+          <a:ext cx="2331398" cy="4124537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1656522</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>68748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>486742</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>26071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8B4325-4BB2-4A4C-8477-8E0B72190C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="13198" t="24756" r="14795" b="1944"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5085522" y="44455248"/>
+          <a:ext cx="4326697" cy="3767323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312807</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>86001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307888</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>188419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04249719-87FA-FD81-9C5F-222342B8B155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9895785" y="44472501"/>
+          <a:ext cx="2609211" cy="5249093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28021</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>87933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330924</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>11457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9C0C38-F718-4868-C60C-D4EAB91D373B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28021" y="49046433"/>
+          <a:ext cx="9231555" cy="3924024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238498</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1724275</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>114551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A65A1A-BD15-4C74-BC5F-1B64649DBC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238498" y="53721000"/>
+          <a:ext cx="4914777" cy="4877051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2274047</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468475</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>181231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC16C44F-03EA-4AB9-86E2-5145B7C48EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703047" y="54051200"/>
+          <a:ext cx="5002732" cy="4994531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455544</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654326</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>47763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Multiplication Sign 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6FAB49-DF96-6C7C-A4F7-CD272607273E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1109870" y="55245000"/>
+          <a:ext cx="2973456" cy="2905263"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14102"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>427521</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>44588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Multiplication Sign 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1150E4-7259-58DD-D36C-5DA39E5F872A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7161282" y="55245000"/>
+          <a:ext cx="2976631" cy="2902088"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14102"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154195</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>725695</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>31198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C51DB25-EA6B-1DAF-526C-64DA7372B538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3583195" y="57224544"/>
+          <a:ext cx="3876261" cy="2433154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>派手すぎて難しい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>179319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC033B7-D5AB-4209-A4E0-DBEC438B3CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="59701044"/>
+          <a:ext cx="6975060" cy="5632450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106983</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>45279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601361</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>68516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5536972-252C-49FF-8273-2DC75DF9F69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6840744" y="59862279"/>
+          <a:ext cx="6615226" cy="4595237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -12349,7 +14859,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12538,10 +15048,132 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609844</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B766A17F-8E4E-7457-559B-3E7596B480D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="3000375"/>
+          <a:ext cx="4610344" cy="735147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>教師への報酬はベース＋追加のチップとする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>124069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>211272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD95964-2221-BFF6-BEB2-4C58AB41AEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9312275" y="3816350"/>
+          <a:ext cx="4613519" cy="738322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>今すぐ会話できるルームの設置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12921,307 +15553,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>「目標を設定してそれを達成する」それ自体に達成感などを感じられるようにする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1749426</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2559051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>980523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D094C09E-71D1-40A2-8D86-FEA9674CB36F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10417176" y="190500"/>
-          <a:ext cx="809625" cy="790023"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>学習進捗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495852</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1292225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1094823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1F5AF6-F7C7-4BA9-A573-7E5A77644BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9163602" y="304800"/>
-          <a:ext cx="796373" cy="790023"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>学習者</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コミュニティ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勉強仲間</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2620065</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66813</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1079363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F0075-F995-419F-A3E1-81334F7AE018}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7944540" y="295690"/>
-          <a:ext cx="790023" cy="783673"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>英会話</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>レッスン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1211262</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>777938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA17CFE-D2C6-4F13-A62D-2B1140B110CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3992562" y="777938"/>
-          <a:ext cx="3046413" cy="615823"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -28962"/>
-            <a:gd name="adj2" fmla="val 105808"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>「格安オンライン英会話」として、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>これを解決するのがメインの顧客への価値</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14001,102 +16332,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
-  <dimension ref="D7:J24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19CED2-D2EF-45B5-AA22-AF28823A58A7}">
   <dimension ref="B6:B12"/>
   <sheetViews>
@@ -14138,7 +16373,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E586B-84A7-4A77-9699-E17DD76B2B13}">
+  <dimension ref="D7:J24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D7D7E-1581-4BDB-836A-9E5709769458}">
   <dimension ref="B3:J6"/>
   <sheetViews>
@@ -14261,7 +16609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C35EEE7-59C3-47CF-8F95-C190282E83DD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14277,7 +16625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFBE229-691A-4F0A-99B5-F4568B96200B}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -14319,8 +16667,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -14769,7 +17117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2654CE15-207B-4FBC-9968-6FB110E84614}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -15114,7 +17462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF2CEE-B0F3-424C-B3B8-A702C66EB623}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15136,7 +17484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593509E-6A19-41A3-B5C8-C8D67F40BB7D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -15334,7 +17682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37077BC2-9261-49C5-A407-E65245983D97}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15350,204 +17698,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="5.08203125" style="10" customWidth="1"/>
-    <col min="4" max="10" width="20.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15836,13 +17986,211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D6637D-C5DA-4DDD-9536-CC83262BD967}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="5.08203125" style="10" customWidth="1"/>
+    <col min="4" max="10" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="1"/>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -16318,39 +18666,38 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="53"/>
-      <c r="C20" s="52" t="s">
-        <v>306</v>
+      <c r="C20" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>142</v>
+        <v>416</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G20" s="78" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K20" s="47"/>
-      <c r="L20" s="39" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="47" t="s">
-        <v>323</v>
+      <c r="C21" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>142</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>256</v>
@@ -16372,7 +18719,7 @@
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
       <c r="D22" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>15</v>
@@ -16381,12 +18728,12 @@
         <v>256</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="39" t="s">
@@ -16397,21 +18744,21 @@
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="47" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G23" s="78" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K23" s="47"/>
       <c r="L23" s="39" t="s">
@@ -16422,37 +18769,40 @@
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>138</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G24" s="78" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K24" s="47"/>
+      <c r="L24" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
-      <c r="D25" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="G25" s="103" t="s">
+      <c r="D25" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="78" t="s">
         <v>144</v>
       </c>
       <c r="H25" s="68"/>
@@ -16461,29 +18811,26 @@
         <v>186</v>
       </c>
       <c r="K25" s="47"/>
-      <c r="L25" s="39" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
-      <c r="D26" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="102" t="s">
+      <c r="D26" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="101" t="s">
         <v>144</v>
       </c>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" s="47"/>
       <c r="L26" s="39" t="s">
@@ -16493,26 +18840,24 @@
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="78" t="s">
-        <v>172</v>
+      <c r="G27" s="101" t="s">
+        <v>144</v>
       </c>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
       <c r="J27" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>156</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K27" s="47"/>
       <c r="L27" s="39" t="s">
         <v>35</v>
       </c>
@@ -16521,7 +18866,7 @@
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="47" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>15</v>
@@ -16529,15 +18874,17 @@
       <c r="F28" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="44" t="s">
-        <v>144</v>
+      <c r="G28" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="L28" s="39" t="s">
         <v>35</v>
       </c>
@@ -16546,10 +18893,10 @@
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="D29" s="47" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>256</v>
@@ -16570,16 +18917,16 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="104" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="102" t="s">
+      <c r="D30" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="44" t="s">
         <v>144</v>
       </c>
       <c r="H30" s="68"/>
@@ -16587,9 +18934,7 @@
       <c r="J30" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K30" s="50" t="s">
-        <v>271</v>
-      </c>
+      <c r="K30" s="47"/>
       <c r="L30" s="39" t="s">
         <v>35</v>
       </c>
@@ -16597,16 +18942,16 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
-      <c r="D31" s="104" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="105" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" s="103" t="s">
+      <c r="D31" s="102" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="101" t="s">
         <v>144</v>
       </c>
       <c r="H31" s="68"/>
@@ -16614,7 +18959,9 @@
       <c r="J31" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="47"/>
+      <c r="K31" s="50" t="s">
+        <v>271</v>
+      </c>
       <c r="L31" s="39" t="s">
         <v>35</v>
       </c>
@@ -16622,98 +18969,98 @@
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
-      <c r="D32" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" s="47" t="s">
+      <c r="D32" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="52"/>
-    </row>
-    <row r="33" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="47"/>
+      <c r="L32" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="G33" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="44" t="s">
         <v>144</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="44" t="s">
         <v>185</v>
       </c>
       <c r="K33" s="52"/>
-      <c r="L33" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="60" t="s">
+    </row>
+    <row r="34" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="61" t="s">
+      <c r="G34" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="59"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="43" t="s">
+    <row r="35" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="44" t="s">
+      <c r="G35" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="K35" s="40"/>
+      <c r="K35" s="59"/>
       <c r="L35" s="39" t="s">
         <v>35</v>
       </c>
@@ -16722,7 +19069,7 @@
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>15</v>
@@ -16736,7 +19083,7 @@
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
       <c r="J36" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K36" s="40"/>
       <c r="L36" s="39" t="s">
@@ -16746,22 +19093,22 @@
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="102" t="s">
+      <c r="D37" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="44" t="s">
         <v>144</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
       <c r="J37" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K37" s="40"/>
       <c r="L37" s="39" t="s">
@@ -16771,22 +19118,22 @@
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
-      <c r="D38" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="43" t="s">
+      <c r="D38" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="101" t="s">
         <v>144</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
       <c r="J38" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K38" s="40"/>
       <c r="L38" s="39" t="s">
@@ -16797,21 +19144,21 @@
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
       <c r="J39" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K39" s="40"/>
       <c r="L39" s="39" t="s">
@@ -16822,7 +19169,7 @@
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
       <c r="D40" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="40" t="s">
         <v>138</v>
@@ -16831,85 +19178,87 @@
         <v>256</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
       <c r="J40" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K40" s="40"/>
       <c r="L40" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F41" s="43" t="s">
         <v>256</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
       <c r="J41" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K41" s="40"/>
       <c r="L41" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="59"/>
+    <row r="42" spans="2:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42" s="40"/>
       <c r="L42" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="E43" s="40" t="s">
+    <row r="43" spans="2:12" ht="15.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="40" t="s">
-        <v>269</v>
-      </c>
+      <c r="F43" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="61"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="59"/>
       <c r="L43" s="39" t="s">
         <v>35</v>
       </c>
@@ -16918,19 +19267,21 @@
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
       <c r="D44" s="64" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="48" t="s">
-        <v>261</v>
+      <c r="F44" s="43" t="s">
+        <v>260</v>
       </c>
       <c r="G44" s="44"/>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
       <c r="J44" s="44"/>
-      <c r="K44" s="40"/>
+      <c r="K44" s="40" t="s">
+        <v>269</v>
+      </c>
       <c r="L44" s="39" t="s">
         <v>35</v>
       </c>
@@ -16938,16 +19289,16 @@
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
-      <c r="D45" s="101" t="s">
-        <v>376</v>
-      </c>
-      <c r="E45" s="101" t="s">
+      <c r="D45" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="105" t="s">
+      <c r="F45" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="G45" s="103"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
       <c r="J45" s="44"/>
@@ -16959,10 +19310,16 @@
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="D46" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="101"/>
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
       <c r="J46" s="44"/>
@@ -17002,8 +19359,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="64"/>
       <c r="E49" s="40"/>
       <c r="F49" s="43"/>
@@ -17017,36 +19374,51 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>35</v>
-      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="40"/>
       <c r="L50" s="39" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:L50" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
+  <autoFilter ref="A3:L51" xr:uid="{473A17DB-C8A8-4415-8F8B-D901F2327F94}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17057,19 +19429,19 @@
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$18:$C$24</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G49</xm:sqref>
+          <xm:sqref>G4:G50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21DA42DC-F4CF-44D6-B2BC-7675E9E5D12D}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$28:$C$30</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J49</xm:sqref>
+          <xm:sqref>J4:J50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{628EF5A0-BDD8-46F8-AABA-B79449D40655}">
           <x14:formula1>
             <xm:f>'利用手順（簡易めも）ガイダンス'!$C$34:$C$38</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F49</xm:sqref>
+          <xm:sqref>F4:F50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17081,8 +19453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D01C3AC-0B05-4F24-929A-B76E766ED848}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -18207,18 +20579,170 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C118BA9-1296-4C37-9003-565ED32A4FDF}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4136D430-8AE7-4860-9CCC-3671F04BEF7B}">
+  <dimension ref="C205:H223"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A204" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="39"/>
+    <col min="3" max="4" width="13.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="43.4140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206" s="39" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C208" s="39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C209" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C211" s="39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C213" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C214" s="104" t="s">
+        <v>420</v>
+      </c>
+      <c r="D214" s="104" t="s">
+        <v>418</v>
+      </c>
+      <c r="E214" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="F214" s="104" t="s">
+        <v>421</v>
+      </c>
+      <c r="G214" s="104"/>
+      <c r="H214" s="104"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C215" s="52"/>
+      <c r="D215" s="52">
+        <v>1</v>
+      </c>
+      <c r="E215" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="F215" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G215" s="52"/>
+      <c r="H215" s="52"/>
+    </row>
+    <row r="216" spans="3:8" ht="30" x14ac:dyDescent="0.35">
+      <c r="C216" s="52"/>
+      <c r="D216" s="47">
+        <v>2</v>
+      </c>
+      <c r="E216" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="G216" s="47"/>
+      <c r="H216" s="47"/>
+    </row>
+    <row r="217" spans="3:8" ht="30" x14ac:dyDescent="0.35">
+      <c r="C217" s="52"/>
+      <c r="D217" s="47">
+        <v>2</v>
+      </c>
+      <c r="E217" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="F217" s="47"/>
+      <c r="G217" s="47"/>
+      <c r="H217" s="47"/>
+    </row>
+    <row r="218" spans="3:8" ht="45" x14ac:dyDescent="0.35">
+      <c r="C218" s="52"/>
+      <c r="D218" s="47">
+        <v>3</v>
+      </c>
+      <c r="E218" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" s="47"/>
+      <c r="G218" s="47"/>
+      <c r="H218" s="47"/>
+    </row>
+    <row r="219" spans="3:8" ht="45" x14ac:dyDescent="0.35">
+      <c r="C219" s="52"/>
+      <c r="D219" s="47">
+        <v>3</v>
+      </c>
+      <c r="E219" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="F219" s="47"/>
+      <c r="G219" s="47"/>
+      <c r="H219" s="47"/>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C220" s="52"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="47"/>
+      <c r="F220" s="47"/>
+      <c r="G220" s="47"/>
+      <c r="H220" s="47"/>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C221" s="52"/>
+      <c r="D221" s="47">
+        <v>3</v>
+      </c>
+      <c r="E221" s="47"/>
+      <c r="F221" s="47"/>
+      <c r="G221" s="47"/>
+      <c r="H221" s="47"/>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C222" s="52"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="47"/>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C223" s="105"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>